--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 9:20 AM</t>
+    <t>Monday, 28 July, 2025 9:39 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -44,6 +44,33 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>DECONGESTYL-N 12 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -59,10 +86,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Monday, 28 July, 2025 9:39 AM</t>
+    <t>Monday, 28 July, 2025 9:43 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +748,104 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>18</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>21</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>22</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>25</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>26</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>27</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +859,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>GLIPTUS 50 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>151.50</t>
+  </si>
+  <si>
+    <t>49.9950</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -86,7 +98,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 9:43 AM</t>
+    <t>Monday, 28 July, 2025 9:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -760,7 +772,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -770,11 +782,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>12</v>
@@ -786,66 +798,99 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>91</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>25</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>26</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>25</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>26</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>27</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>140.99500000000001</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>30</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>31</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -869,10 +914,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -98,7 +98,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 9:56 AM</t>
+    <t>Monday, 28 July, 2025 10:05 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -83,6 +83,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -98,7 +107,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 10:05 AM</t>
+    <t>Monday, 28 July, 2025 10:09 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -838,59 +847,92 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>28</v>
       </c>
-      <c t="s" r="Q10" s="12">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>29</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>30</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>140.99500000000001</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
-        <v>29</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
-        <v>30</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
-        <v>31</v>
-      </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>186.03999999999999</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>32</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>33</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>34</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -919,10 +961,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -107,7 +107,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 10:09 AM</t>
+    <t>Monday, 28 July, 2025 10:21 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -107,7 +107,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 10:21 AM</t>
+    <t>Monday, 28 July, 2025 10:23 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -44,24 +44,33 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DECONGESTYL-N 12 RECTAL SUPP.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
     <t>39.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>GLIPTUS 50 MG 30 TABS.</t>
   </si>
   <si>
@@ -74,13 +83,25 @@
     <t>49.9950</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>44.00</t>
   </si>
   <si>
-    <t>22.0000</t>
+    <t>44.0000</t>
   </si>
   <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
@@ -95,9 +116,6 @@
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -107,7 +125,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 10:23 AM</t>
+    <t>Monday, 28 July, 2025 10:25 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -781,7 +799,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -791,11 +809,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>12</v>
@@ -807,14 +825,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -831,7 +849,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -847,7 +865,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -864,7 +882,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -886,53 +904,119 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>31</v>
       </c>
-      <c t="s" r="Q11" s="12">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>12</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>32</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>186.03999999999999</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>32</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
-        <v>33</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>34</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>28</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>35</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>36</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>312.54000000000002</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>38</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>39</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>40</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -966,10 +1050,20 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMARYL 3 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
     <t>18.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DECONGESTYL-N 12 RECTAL SUPP.</t>
   </si>
   <si>
@@ -113,19 +125,31 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 10:25 AM</t>
+    <t>Monday, 28 July, 2025 10:43 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -799,7 +823,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -809,14 +833,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -825,14 +849,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -849,7 +873,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -865,7 +889,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -875,11 +899,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -891,14 +915,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -915,7 +939,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -931,7 +955,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -941,14 +965,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -957,20 +981,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -981,42 +1005,108 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>312.54000000000002</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>38</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>39</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
         <v>40</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>41</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>32</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>40</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>44</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>353.25</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>46</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>47</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>48</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1060,10 +1150,20 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -83,6 +83,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>GLIPTUS 50 MG 30 TABS.</t>
   </si>
   <si>
@@ -149,7 +158,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 10:43 AM</t>
+    <t>Monday, 28 July, 2025 10:52 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -889,7 +898,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -899,14 +908,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -915,14 +924,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -955,7 +964,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -965,14 +974,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -981,14 +990,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1005,7 +1014,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1021,24 +1030,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1047,20 +1056,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1075,38 +1084,71 @@
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>353.25</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>46</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>35</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>43</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>47</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>48</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c t="s" r="Q16" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>423.25</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>49</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>50</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>51</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1160,10 +1202,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -158,7 +158,16 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 10:52 AM</t>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>Monday, 28 July, 2025 11:03 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1117,38 +1126,71 @@
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>423.25</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>49</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>18</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>43</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>50</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>51</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c t="s" r="Q17" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>473.25</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>52</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>53</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>54</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1207,10 +1249,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -74,6 +74,24 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DECONGESTYL-N 12 RECTAL SUPP.</t>
   </si>
   <si>
@@ -134,15 +152,24 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شاش فازلين 10*20 سم </t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -167,7 +194,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 11:03 AM</t>
+    <t>Monday, 28 July, 2025 11:05 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -891,7 +918,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -907,7 +934,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -917,14 +944,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -940,7 +967,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -950,14 +977,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -966,7 +993,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -983,14 +1010,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -999,14 +1026,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1016,14 +1043,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1032,7 +1059,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1049,11 +1076,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1065,28 +1092,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1098,31 +1125,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1131,66 +1158,165 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>51</v>
       </c>
-      <c t="s" r="Q17" s="12">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>52</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>48</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>53</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>473.25</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>52</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
-        <v>53</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
-        <v>54</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>41</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>48</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>56</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>58</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>18</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>48</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>59</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>536.15499999999997</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>61</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>62</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>63</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1254,10 +1380,25 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -62,12 +62,24 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANGIOSARTAN PLUS 40/25MG 28 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -134,9 +146,6 @@
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
@@ -194,7 +203,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 11:05 AM</t>
+    <t>Monday, 28 July, 2025 11:06 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -885,7 +894,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -894,14 +903,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -911,11 +920,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -927,14 +936,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -944,11 +953,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -960,14 +969,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -977,14 +986,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -993,14 +1002,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1010,14 +1019,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1026,14 +1035,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1050,7 +1059,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1066,7 +1075,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1076,11 +1085,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1092,14 +1101,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1116,7 +1125,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1149,7 +1158,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1165,24 +1174,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1191,31 +1200,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1224,20 +1233,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1248,7 +1257,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1270,7 +1279,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1281,42 +1290,75 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>536.15499999999997</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>61</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>21</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>51</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>62</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>63</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c t="s" r="Q21" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>618.15499999999997</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>64</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>65</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>66</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1395,10 +1437,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -161,6 +173,18 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -176,9 +200,6 @@
     <t xml:space="preserve">شاش فازلين 10*20 سم </t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -203,7 +224,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 11:06 AM</t>
+    <t>Monday, 28 July, 2025 11:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -910,7 +931,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -920,14 +941,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -936,14 +957,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -953,11 +974,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -969,14 +990,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -986,11 +1007,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1002,14 +1023,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1019,14 +1040,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1035,14 +1056,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1052,11 +1073,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1068,14 +1089,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1092,7 +1113,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1108,7 +1129,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1118,11 +1139,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1134,14 +1155,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1151,14 +1172,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1167,14 +1188,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1184,14 +1205,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1200,20 +1221,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1224,7 +1245,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1246,7 +1267,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1279,18 +1300,18 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1299,66 +1320,132 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>618.15499999999997</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>64</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>65</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>18</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>59</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>66</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>68</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>21</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>59</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>69</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>702.15499999999997</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>71</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>72</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>73</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1442,10 +1529,20 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -164,6 +164,27 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -218,13 +239,10 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 11:16 AM</t>
+    <t>Monday, 28 July, 2025 11:23 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1294,24 +1312,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1320,20 +1338,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1366,18 +1384,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1386,66 +1404,132 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>702.15499999999997</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>71</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>72</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>18</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>66</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>73</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>75</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>21</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>66</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>52</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>746.15499999999997</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>77</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>78</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>79</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1539,10 +1623,20 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -170,7 +170,7 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>25.0000</t>
+    <t>50.0000</t>
   </si>
   <si>
     <t>OTAL EAR DROPS 5 ML</t>
@@ -185,6 +185,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>PAROXETINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -239,10 +248,7 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>Monday, 28 July, 2025 11:23 AM</t>
+    <t>Monday, 28 July, 2025 11:28 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1246,7 +1252,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1263,7 +1269,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1312,7 +1318,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1345,7 +1351,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1355,14 +1361,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1371,31 +1377,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1404,20 +1410,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1428,7 +1434,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1444,13 +1450,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1477,59 +1483,92 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>746.15499999999997</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
-        <v>77</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>78</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>21</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>69</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>52</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>801.84500000000003</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
         <v>79</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>80</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>81</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1633,10 +1672,15 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
@@ -155,6 +167,18 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -215,27 +239,57 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>79:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
     <t>4.0000</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شاش فازلين 10*20 سم </t>
   </si>
   <si>
     <t>12.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -248,7 +302,10 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 11:28 AM</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>Monday, 28 July, 2025 11:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -972,7 +1029,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -988,7 +1045,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -998,14 +1055,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1014,14 +1071,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1031,11 +1088,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1047,14 +1104,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1064,11 +1121,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1080,14 +1137,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1097,14 +1154,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1113,14 +1170,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1130,11 +1187,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1146,14 +1203,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1170,7 +1227,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1186,7 +1243,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1196,11 +1253,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1212,14 +1269,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1229,14 +1286,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1245,14 +1302,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1262,14 +1319,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1278,14 +1335,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1295,11 +1352,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1311,14 +1368,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1328,14 +1385,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1344,14 +1401,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1361,14 +1418,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1377,14 +1434,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1394,14 +1451,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1410,20 +1467,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1434,7 +1491,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1450,21 +1507,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1476,28 +1533,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1509,66 +1566,264 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>801.84500000000003</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>85</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>18</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>78</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>86</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>88</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>18</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>78</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>89</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>91</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>27</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>78</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>92</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>93</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>18</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>78</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>94</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>96</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>21</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>78</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>60</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>97</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>18</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>78</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>79</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>80</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
-        <v>81</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>874.52499999999998</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>98</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>99</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>100</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1677,10 +1932,40 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -239,21 +239,27 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>39:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
     <t>27:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -305,7 +311,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 11:32 AM</t>
+    <t>Monday, 28 July, 2025 11:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1583,11 +1589,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1599,14 +1605,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1616,14 +1622,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1632,7 +1638,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1649,14 +1655,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1665,14 +1671,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1682,11 +1688,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1705,7 +1711,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1719,7 +1725,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1731,14 +1737,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1748,11 +1754,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1764,14 +1770,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1781,49 +1787,82 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>99</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>18</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>78</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>79</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>80</v>
       </c>
-      <c t="s" r="Q32" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>874.52499999999998</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>98</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>99</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c t="s" r="Q33" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>889.52499999999998</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
         <v>100</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>101</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>102</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1962,10 +2001,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -311,7 +311,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 11:33 AM</t>
+    <t>Monday, 28 July, 2025 11:44 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -227,6 +227,18 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>17.0950</t>
+  </si>
+  <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -245,9 +257,6 @@
     <t>39:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -311,7 +320,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 11:44 AM</t>
+    <t>Monday, 28 July, 2025 11:47 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1513,13 +1522,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1530,7 +1539,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1552,15 +1561,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1572,28 +1581,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1605,28 +1614,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1638,20 +1647,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1662,7 +1671,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1684,7 +1693,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1695,7 +1704,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1711,13 +1720,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1725,7 +1734,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1737,28 +1746,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1777,21 +1786,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1803,66 +1812,99 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>889.52499999999998</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>100</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>101</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>102</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>18</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>73</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>82</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>906.62</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>103</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>104</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>105</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2006,10 +2048,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ARBATEG 2% SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -143,9 +152,6 @@
     <t>70.00</t>
   </si>
   <si>
-    <t>70.0000</t>
-  </si>
-  <si>
     <t>GLIPTUS 50 MG 30 TABS.</t>
   </si>
   <si>
@@ -197,6 +203,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -236,7 +251,10 @@
     <t>34.19</t>
   </si>
   <si>
-    <t>17.0950</t>
+    <t>51.2850</t>
+  </si>
+  <si>
+    <t>1:2</t>
   </si>
   <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
@@ -245,9 +263,6 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>35.0000</t>
   </si>
   <si>
@@ -287,7 +302,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -320,7 +335,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 11:47 AM</t>
+    <t>Monday, 28 July, 2025 11:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1027,7 +1042,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1037,14 +1052,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1053,14 +1068,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1070,14 +1085,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1086,14 +1101,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1110,7 +1125,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1126,7 +1141,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1159,7 +1174,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1169,7 +1184,7 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
@@ -1192,7 +1207,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1202,14 +1217,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1225,7 +1240,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1258,7 +1273,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1268,14 +1283,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1284,14 +1299,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1301,11 +1316,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1317,14 +1332,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1334,11 +1349,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1350,14 +1365,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1367,14 +1382,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1383,14 +1398,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1400,11 +1415,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1416,14 +1431,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1433,11 +1448,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1449,14 +1464,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1466,11 +1481,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1482,14 +1497,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1499,14 +1514,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1515,31 +1530,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1548,14 +1563,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1565,14 +1580,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1581,31 +1596,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1614,28 +1629,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1647,28 +1662,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1680,31 +1695,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1713,28 +1728,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1746,31 +1761,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1792,7 +1807,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1819,21 +1834,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1845,7 +1860,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1858,53 +1873,119 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>906.62</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>103</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>104</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>105</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>106</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>21</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>78</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>62</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>107</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>18</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>78</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>87</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1092.01</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>108</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>109</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>110</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2053,10 +2134,20 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -245,16 +245,16 @@
     <t>TEMPO COOL</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
     <t>34.19</t>
   </si>
   <si>
-    <t>51.2850</t>
-  </si>
-  <si>
-    <t>1:2</t>
+    <t>34.1900</t>
   </si>
   <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
@@ -311,9 +311,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاش فازلين 10*20 سم </t>
   </si>
   <si>
@@ -335,7 +332,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 11:58 AM</t>
+    <t>Monday, 28 July, 2025 12:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1603,24 +1600,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1675,7 +1672,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1708,7 +1705,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1741,7 +1738,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1774,7 +1771,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1807,7 +1804,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1815,10 +1812,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1827,7 +1824,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1840,11 +1837,11 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -1860,7 +1857,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1873,15 +1870,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1893,7 +1890,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1906,7 +1903,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1926,7 +1923,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1939,7 +1936,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1955,13 +1952,13 @@
     </row>
     <row r="37" ht="25.5" customHeight="1">
       <c r="P37" s="13">
-        <v>1092.01</v>
+        <v>1077.915</v>
       </c>
       <c r="Q37" s="13"/>
     </row>
     <row r="38" ht="16.5" customHeight="1">
       <c t="s" r="A38" s="14">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1969,13 +1966,13 @@
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c t="s" r="G38" s="15">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="16"/>
       <c t="s" r="K38" s="17">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMRIZOLE-N 5 VAG. SUPP</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANGIOSARTAN PLUS 40/25MG 28 F.C. TABS.</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>82.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ARBATEG 2% SUSP. 100ML</t>
   </si>
   <si>
@@ -332,7 +344,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 12:02 PM</t>
+    <t>Monday, 28 July, 2025 12:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1039,7 +1051,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1049,14 +1061,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1065,14 +1077,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1089,7 +1101,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1122,7 +1134,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1138,7 +1150,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1148,14 +1160,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1164,14 +1176,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1181,11 +1193,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1197,14 +1209,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1214,11 +1226,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1230,14 +1242,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1247,14 +1259,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1263,14 +1275,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1280,11 +1292,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1296,14 +1308,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1313,14 +1325,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1336,7 +1348,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1346,11 +1358,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1362,14 +1374,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1402,7 +1414,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1412,14 +1424,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1428,14 +1440,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1445,11 +1457,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1461,14 +1473,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1478,14 +1490,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1494,14 +1506,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1518,7 +1530,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1534,7 +1546,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1544,14 +1556,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1560,14 +1572,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1577,11 +1589,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1593,31 +1605,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1626,28 +1638,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1659,24 +1671,24 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1705,15 +1717,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1725,28 +1737,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1765,24 +1777,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1791,31 +1803,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1824,31 +1836,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1857,28 +1869,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1890,28 +1902,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1923,66 +1935,99 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1077.915</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>107</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
-        <v>108</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
-        <v>109</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>110</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>23</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>83</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>91</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1088.415</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>111</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>112</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>113</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2141,10 +2186,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -65,7 +65,7 @@
     <t>AMRIZOLE-N 5 VAG. SUPP</t>
   </si>
   <si>
-    <t>14:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>10.50</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 12:06 PM</t>
+    <t>Monday, 28 July, 2025 12:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -344,7 +344,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 12:07 PM</t>
+    <t>Monday, 28 July, 2025 12:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -62,33 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>AMRIZOLE-N 5 VAG. SUPP</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>10.50</t>
-  </si>
-  <si>
-    <t>10.5000</t>
+    <t>ANGIOSARTAN PLUS 40/25MG 28 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>ANGIOSARTAN PLUS 40/25MG 28 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
     <t>ARBATEG 2% SUSP. 100ML</t>
   </si>
   <si>
@@ -98,6 +86,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 312 MG/5ML SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -278,6 +275,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8497:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>امواس لورد</t>
   </si>
   <si>
@@ -311,9 +320,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>6.0000</t>
   </si>
   <si>
@@ -344,7 +350,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 12:23 PM</t>
+    <t>Monday, 28 July, 2025 12:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1051,7 +1057,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1061,14 +1067,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1077,14 +1083,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1094,14 +1100,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1110,14 +1116,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1127,11 +1133,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1143,14 +1149,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1160,11 +1166,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1176,7 +1182,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1193,11 +1199,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1209,7 +1215,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1226,11 +1232,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1242,14 +1248,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1259,11 +1265,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1275,7 +1281,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1292,11 +1298,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1308,7 +1314,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1325,11 +1331,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1341,14 +1347,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1358,11 +1364,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1374,7 +1380,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1391,11 +1397,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1407,14 +1413,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1424,11 +1430,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1440,14 +1446,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1457,11 +1463,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1473,7 +1479,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1490,11 +1496,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1506,14 +1512,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1523,11 +1529,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1539,14 +1545,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1556,11 +1562,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1572,14 +1578,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1589,11 +1595,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1605,7 +1611,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1622,11 +1628,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1638,28 +1644,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1671,14 +1677,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1688,11 +1694,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1704,31 +1710,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1737,28 +1743,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1770,28 +1776,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1803,20 +1809,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1827,7 +1833,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1843,24 +1849,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1876,13 +1882,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1890,10 +1896,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1909,13 +1915,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1923,7 +1929,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1935,28 +1941,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -1968,66 +1974,99 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1088.415</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>111</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>112</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>18</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>82</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>94</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1201.915</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
         <v>113</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>114</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>115</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2191,10 +2230,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -350,7 +350,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 12:26 PM</t>
+    <t>Monday, 28 July, 2025 12:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -254,18 +254,18 @@
     <t>TEMPO COOL</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>51.2850</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>34.19</t>
-  </si>
-  <si>
-    <t>34.1900</t>
-  </si>
-  <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 12:52 PM</t>
+    <t>Monday, 28 July, 2025 12:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1651,24 +1651,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>84</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1756,7 +1756,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1789,7 +1789,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1822,7 +1822,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1855,7 +1855,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1888,7 +1888,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1921,7 +1921,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1954,7 +1954,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1987,7 +1987,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2020,7 +2020,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2036,7 +2036,7 @@
     </row>
     <row r="39" ht="25.5" customHeight="1">
       <c r="P39" s="13">
-        <v>1201.915</v>
+        <v>1219.01</v>
       </c>
       <c r="Q39" s="13"/>
     </row>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -185,156 +185,162 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>2:2</t>
+    <t>2:1</t>
   </si>
   <si>
     <t>60.00</t>
   </si>
   <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>PAROXETINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>51.2850</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8497:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>39:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>79:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>PAROXETINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>TEMPO COOL</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>34.19</t>
-  </si>
-  <si>
-    <t>51.2850</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8497:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>امواس لورد</t>
-  </si>
-  <si>
-    <t>39:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>27:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>79:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -350,7 +356,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 12:58 PM</t>
+    <t>Monday, 28 July, 2025 1:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1437,7 +1443,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1866,7 +1872,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1896,7 +1902,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1908,7 +1914,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1925,11 +1931,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1941,7 +1947,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1958,11 +1964,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -1974,7 +1980,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2007,7 +2013,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2036,13 +2042,13 @@
     </row>
     <row r="39" ht="25.5" customHeight="1">
       <c r="P39" s="13">
-        <v>1219.01</v>
+        <v>1233.01</v>
       </c>
       <c r="Q39" s="13"/>
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c t="s" r="A40" s="14">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2050,13 +2056,13 @@
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c t="s" r="G40" s="15">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="16"/>
       <c t="s" r="K40" s="17">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -356,7 +356,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 1:00 PM</t>
+    <t>Monday, 28 July, 2025 1:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -254,6 +254,9 @@
     <t>TEMPO COOL</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -263,9 +266,6 @@
     <t>51.2850</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 1:06 PM</t>
+    <t>Monday, 28 July, 2025 1:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1657,24 +1657,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1762,7 +1762,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1795,7 +1795,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1828,7 +1828,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1861,7 +1861,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1894,7 +1894,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1927,7 +1927,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1960,7 +1960,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1993,7 +1993,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2026,7 +2026,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -182,6 +182,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -356,7 +365,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 1:27 PM</t>
+    <t>Monday, 28 July, 2025 1:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1426,7 +1435,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1436,14 +1445,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1452,14 +1461,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1476,7 +1485,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1492,7 +1501,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1525,7 +1534,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1542,7 +1551,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1558,7 +1567,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1568,14 +1577,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1584,14 +1593,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1608,7 +1617,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1624,7 +1633,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1657,24 +1666,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1683,31 +1692,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1733,14 +1742,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1749,31 +1758,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1782,28 +1791,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1815,28 +1824,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1848,31 +1857,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1881,7 +1890,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1894,18 +1903,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1921,13 +1930,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1938,7 +1947,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1954,13 +1963,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1987,21 +1996,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2013,66 +2022,99 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1233.01</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>117</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>18</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>85</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>97</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>115</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
-        <v>116</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
-        <v>117</v>
-      </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1300.01</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>118</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>119</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>120</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2241,10 +2283,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>70.00</t>
   </si>
   <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
     <t>GLIPTUS 50 MG 30 TABS.</t>
   </si>
   <si>
@@ -258,6 +267,15 @@
   </si>
   <si>
     <t>45.0450</t>
+  </si>
+  <si>
+    <t>TELFAST 180MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
   </si>
   <si>
     <t>TEMPO COOL</t>
@@ -1369,7 +1387,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1379,14 +1397,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1395,14 +1413,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1435,7 +1453,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1452,7 +1470,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1468,7 +1486,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1478,14 +1496,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1494,14 +1512,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1518,7 +1536,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1534,7 +1552,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1567,7 +1585,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1584,7 +1602,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1600,7 +1618,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1610,14 +1628,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1626,14 +1644,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1650,7 +1668,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1666,7 +1684,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1699,24 +1717,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1725,14 +1743,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1742,11 +1760,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1758,31 +1776,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1791,28 +1809,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1824,31 +1842,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1870,7 +1888,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1897,24 +1915,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1930,24 +1948,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1956,31 +1974,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2002,7 +2020,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2013,7 +2031,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2029,21 +2047,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2055,7 +2073,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2068,53 +2086,119 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>122</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>21</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>91</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>71</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>123</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>18</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>91</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>103</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1300.01</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>118</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>119</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
-        <v>120</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1672.01</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>124</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>125</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>126</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2288,10 +2372,20 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -383,7 +383,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 1:57 PM</t>
+    <t>Monday, 28 July, 2025 1:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -164,6 +164,9 @@
     <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>114.00</t>
   </si>
   <si>
@@ -242,9 +245,6 @@
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>19.00</t>
   </si>
   <si>
@@ -272,6 +272,9 @@
     <t>TELFAST 180MG 20 F.C. TABS</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>144.00</t>
   </si>
   <si>
@@ -281,9 +284,6 @@
     <t>TEMPO COOL</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -383,7 +383,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 1:58 PM</t>
+    <t>Monday, 28 July, 2025 2:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1387,7 +1387,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1397,11 +1397,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1413,14 +1413,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1430,11 +1430,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1463,11 +1463,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1496,11 +1496,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1512,14 +1512,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1529,14 +1529,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1562,11 +1562,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1595,11 +1595,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1611,14 +1611,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1628,11 +1628,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1644,14 +1644,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1684,7 +1684,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1750,7 +1750,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1760,11 +1760,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1776,14 +1776,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1800,7 +1800,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1998,7 +1998,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2123,11 +2123,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -383,7 +392,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 2:03 PM</t>
+    <t>Monday, 28 July, 2025 2:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1255,7 +1264,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1272,7 +1281,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1288,7 +1297,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1298,7 +1307,7 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
@@ -1321,7 +1330,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1331,14 +1340,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1354,7 +1363,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1368,7 +1377,7 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1380,14 +1389,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1401,10 +1410,10 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1413,14 +1422,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1430,14 +1439,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1446,14 +1455,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1486,7 +1495,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1503,7 +1512,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1519,7 +1528,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1529,14 +1538,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1545,14 +1554,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1569,7 +1578,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1585,7 +1594,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1618,7 +1627,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1635,7 +1644,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1651,7 +1660,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1668,7 +1677,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1684,7 +1693,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1701,7 +1710,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1717,7 +1726,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1750,7 +1759,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1760,14 +1769,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1776,31 +1785,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1809,31 +1818,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1859,14 +1868,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1875,31 +1884,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1908,28 +1917,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1941,28 +1950,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1974,31 +1983,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2007,7 +2016,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2020,18 +2029,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2047,13 +2056,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2064,7 +2073,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2080,13 +2089,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2113,21 +2122,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2139,66 +2148,99 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q41" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>126</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>18</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>94</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>106</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1672.01</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>124</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>125</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
-        <v>126</v>
-      </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1699.01</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>127</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>128</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>129</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2382,10 +2424,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -392,7 +392,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 2:05 PM</t>
+    <t>Monday, 28 July, 2025 2:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -215,13 +215,13 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
-    <t>24.0000</t>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>LARYPRO 20 LOZENGES</t>
@@ -356,7 +356,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -392,7 +395,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 2:06 PM</t>
+    <t>Monday, 28 July, 2025 2:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1561,7 +1564,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1571,14 +1574,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>70</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>58</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2040,7 +2043,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>54</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2049,7 +2052,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2066,11 +2069,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2082,7 +2085,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2099,11 +2102,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2115,7 +2118,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2132,11 +2135,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2148,7 +2151,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2181,7 +2184,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2202,7 +2205,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2210,13 +2213,13 @@
     </row>
     <row r="43" ht="24.75" customHeight="1">
       <c r="P43" s="13">
-        <v>1699.01</v>
+        <v>1713.01</v>
       </c>
       <c r="Q43" s="13"/>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c t="s" r="A44" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2224,13 +2227,13 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c t="s" r="G44" s="15">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="16"/>
       <c t="s" r="K44" s="17">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CETAL 1000MG 15 TABS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -170,6 +179,15 @@
     <t>70.00</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -353,6 +371,12 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -395,7 +419,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 2:07 PM</t>
+    <t>Monday, 28 July, 2025 3:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1234,7 +1258,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1267,7 +1291,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1284,7 +1308,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1300,7 +1324,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1317,7 +1341,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1333,7 +1357,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1343,7 +1367,7 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1366,7 +1390,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1376,14 +1400,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1399,7 +1423,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1413,7 +1437,7 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1425,14 +1449,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1446,10 +1470,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1458,14 +1482,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1475,11 +1499,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1491,14 +1515,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1508,14 +1532,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1524,14 +1548,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1548,7 +1572,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1564,7 +1588,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1581,7 +1605,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1590,7 +1614,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1607,11 +1631,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1623,14 +1647,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1640,14 +1664,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>76</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1663,7 +1687,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1680,7 +1704,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1696,7 +1720,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1729,7 +1753,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1762,7 +1786,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1779,7 +1803,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1795,7 +1819,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1805,14 +1829,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1821,31 +1845,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1854,14 +1878,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1871,11 +1895,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1887,31 +1911,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1920,28 +1944,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1953,31 +1977,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1999,7 +2023,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2026,24 +2050,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2052,20 +2076,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2076,7 +2100,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2092,13 +2116,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2106,7 +2130,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2118,7 +2142,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2131,18 +2155,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2151,31 +2175,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2184,66 +2208,165 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>131</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>18</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>100</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>132</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>134</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>21</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>100</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>81</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>135</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>18</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>100</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>112</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1713.01</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>128</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>129</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
-        <v>130</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1746.71</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>136</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>137</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>138</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2432,10 +2555,25 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -416,10 +416,31 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 3:59 PM</t>
+    <t xml:space="preserve">مناديل جيب مبلله </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>مناديل مبلله كبيره</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>Monday, 28 July, 2025 4:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2281,7 +2302,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2295,10 +2316,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2307,7 +2328,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2335,38 +2356,104 @@
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1746.71</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>136</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>137</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
         <v>138</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>100</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>139</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>141</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>142</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>100</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>132</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1826.71</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>143</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>144</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>145</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2570,10 +2657,20 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -440,7 +440,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 4:22 PM</t>
+    <t>Monday, 28 July, 2025 4:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>82.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ARBATEG 2% SUSP. 100ML</t>
   </si>
   <si>
@@ -200,12 +212,24 @@
     <t>228.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:10</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>GLIPTUS 50 MG 30 TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>151.50</t>
   </si>
   <si>
@@ -260,6 +284,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
@@ -287,6 +320,27 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>SILDAVA 100MG 12 TABLETS</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -302,9 +356,6 @@
     <t>1:1</t>
   </si>
   <si>
-    <t>144.00</t>
-  </si>
-  <si>
     <t>144.0000</t>
   </si>
   <si>
@@ -407,12 +458,6 @@
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -440,7 +485,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 4:40 PM</t>
+    <t>Monday, 28 July, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1147,7 +1192,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1157,14 +1202,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1173,14 +1218,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1190,14 +1235,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1206,14 +1251,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1279,7 +1324,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1289,11 +1334,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1305,14 +1350,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1322,14 +1367,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1338,14 +1383,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1355,11 +1400,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1371,14 +1416,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1388,11 +1433,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1404,14 +1449,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1421,14 +1466,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1437,14 +1482,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1454,11 +1499,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1470,7 +1515,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1487,14 +1532,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1503,14 +1548,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1520,11 +1565,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1536,14 +1581,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1553,14 +1598,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1593,7 +1638,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1609,7 +1654,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1619,14 +1664,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1635,14 +1680,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1652,11 +1697,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1668,14 +1713,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1685,14 +1730,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1701,14 +1746,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1718,14 +1763,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1734,14 +1779,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1751,14 +1796,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1767,14 +1812,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1784,11 +1829,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1800,14 +1845,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1817,14 +1862,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1833,14 +1878,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1850,11 +1895,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1866,14 +1911,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1883,14 +1928,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1899,14 +1944,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1916,14 +1961,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1932,20 +1977,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1956,7 +2001,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1972,7 +2017,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1982,14 +2027,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2022,7 +2067,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2038,21 +2083,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2064,31 +2109,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2104,13 +2149,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2121,7 +2166,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2137,24 +2182,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2163,31 +2208,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2196,31 +2241,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2229,20 +2274,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2253,7 +2298,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2262,31 +2307,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2295,31 +2340,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2328,31 +2373,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2361,28 +2406,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2394,66 +2439,231 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1826.71</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>143</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>144</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
-        <v>145</v>
-      </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>148</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>23</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>117</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>104</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>149</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>23</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>117</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>89</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>151</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>23</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>117</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>129</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>152</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>153</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>117</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>154</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>156</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>157</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>117</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>104</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2063.8699999999999</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>158</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>159</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>160</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2667,10 +2877,35 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -485,7 +485,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 5:32 PM</t>
+    <t>Monday, 28 July, 2025 5:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -485,7 +485,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 5:56 PM</t>
+    <t>Monday, 28 July, 2025 5:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -485,7 +485,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 5:58 PM</t>
+    <t>Monday, 28 July, 2025 6:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -302,6 +311,15 @@
     <t>79.2000</t>
   </si>
   <si>
+    <t>OST-MAP 60MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -485,7 +503,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 6:01 PM</t>
+    <t>Monday, 28 July, 2025 6:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1621,7 +1639,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1631,11 +1649,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1647,14 +1665,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1664,14 +1682,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1680,14 +1698,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1697,14 +1715,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>74</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1720,7 +1738,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1753,7 +1771,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1770,7 +1788,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1786,7 +1804,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1803,7 +1821,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1812,14 +1830,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1829,14 +1847,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1852,7 +1870,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1885,7 +1903,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1918,7 +1936,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1935,7 +1953,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1951,7 +1969,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1968,7 +1986,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1984,7 +2002,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2001,7 +2019,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2017,7 +2035,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2050,7 +2068,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2060,14 +2078,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2076,14 +2094,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2093,14 +2111,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2109,14 +2127,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2126,14 +2144,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2149,24 +2167,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2175,14 +2193,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2192,11 +2210,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2208,31 +2226,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2241,28 +2259,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2274,31 +2292,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2320,7 +2338,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2347,21 +2365,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2380,24 +2398,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2406,7 +2424,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2419,18 +2437,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2446,24 +2464,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2485,18 +2503,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2505,31 +2523,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2538,7 +2556,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2551,18 +2569,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2571,31 +2589,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2604,66 +2622,132 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q52" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>158</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>159</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>123</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>160</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>162</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>163</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>123</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>110</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2063.8699999999999</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>158</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>159</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>160</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2239.8699999999999</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>164</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>165</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>166</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2902,10 +2986,20 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -68,15 +83,6 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANGIOSARTAN PLUS 40/25MG 28 F.C. TABS.</t>
   </si>
   <si>
@@ -122,9 +128,6 @@
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>49.00</t>
   </si>
   <si>
@@ -209,6 +212,18 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>EPICEPHIN 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -266,9 +281,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -347,6 +359,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>RASPELOCIN 400MG 5 F.C.TAB</t>
+  </si>
+  <si>
+    <t>66.50</t>
+  </si>
+  <si>
+    <t>66.5000</t>
+  </si>
+  <si>
     <t>SILDAVA 100MG 12 TABLETS</t>
   </si>
   <si>
@@ -359,6 +380,12 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -371,9 +398,6 @@
     <t>TELFAST 180MG 20 F.C. TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>144.0000</t>
   </si>
   <si>
@@ -449,10 +473,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -461,7 +482,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>6:0</t>
   </si>
   <si>
     <t xml:space="preserve">شاش فازلين 10*20 سم </t>
@@ -482,6 +503,12 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -503,7 +530,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 6:14 PM</t>
+    <t>Monday, 28 July, 2025 6:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1220,11 +1247,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1236,14 +1263,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1253,14 +1280,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1269,14 +1296,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1286,14 +1313,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1302,14 +1329,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1319,11 +1346,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1335,14 +1362,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1352,11 +1379,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1368,14 +1395,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1385,11 +1412,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1401,14 +1428,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1418,14 +1445,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1434,14 +1461,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1451,11 +1478,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1467,14 +1494,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1484,11 +1511,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1500,14 +1527,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1517,14 +1544,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1533,14 +1560,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1550,11 +1577,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1566,7 +1593,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1583,14 +1610,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1599,14 +1626,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1616,11 +1643,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1632,14 +1659,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1649,14 +1676,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1665,14 +1692,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1682,14 +1709,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1698,14 +1725,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1715,14 +1742,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1731,14 +1758,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1748,14 +1775,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1764,14 +1791,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1781,14 +1808,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1797,14 +1824,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1814,11 +1841,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1830,14 +1857,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1847,14 +1874,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1863,14 +1890,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1880,14 +1907,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1896,14 +1923,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1913,14 +1940,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1929,14 +1956,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1946,14 +1973,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1962,14 +1989,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1979,11 +2006,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1995,7 +2022,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2012,14 +2039,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2028,14 +2055,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2045,11 +2072,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2061,14 +2088,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2078,14 +2105,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2094,14 +2121,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2111,14 +2138,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2127,14 +2154,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2144,14 +2171,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2160,14 +2187,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2177,11 +2204,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2193,14 +2220,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2210,14 +2237,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2226,7 +2253,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2239,18 +2266,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>120</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2259,14 +2286,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2276,14 +2303,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2292,14 +2319,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2309,14 +2336,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2325,31 +2352,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2358,31 +2385,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2391,31 +2418,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2424,31 +2451,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2457,31 +2484,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>147</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2490,31 +2517,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2523,31 +2550,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2556,31 +2583,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2589,31 +2616,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2622,31 +2649,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2662,24 +2689,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2688,66 +2715,231 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2239.8699999999999</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>162</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>25</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>131</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>96</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>164</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
         <v>165</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>131</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>149</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>166</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>25</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>131</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>143</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>167</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>168</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>131</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>169</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>171</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>172</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>131</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>114</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2594.0799999999999</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>173</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>174</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>175</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2996,10 +3188,35 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CETAL 1000MG 15 TABS</t>
   </si>
   <si>
@@ -164,6 +173,9 @@
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>142.50</t>
   </si>
   <si>
@@ -281,10 +293,10 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>72.0000</t>
   </si>
   <si>
     <t>LARYPRO 20 LOZENGES</t>
@@ -383,9 +395,6 @@
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -473,7 +482,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -530,7 +542,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 6:16 PM</t>
+    <t>Monday, 28 July, 2025 6:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1435,7 +1447,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1468,7 +1480,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1501,7 +1513,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1518,7 +1530,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1534,7 +1546,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1551,7 +1563,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1577,11 +1589,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1593,14 +1605,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1610,14 +1622,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1626,14 +1638,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1643,11 +1655,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1659,14 +1671,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1676,14 +1688,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1692,14 +1704,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1709,14 +1721,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1725,14 +1737,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1749,7 +1761,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1782,7 +1794,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1815,7 +1827,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1824,14 +1836,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1848,7 +1860,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1857,14 +1869,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1874,11 +1886,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1890,14 +1902,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1907,14 +1919,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1923,14 +1935,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1940,14 +1952,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1956,14 +1968,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1973,14 +1985,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1989,14 +2001,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2006,11 +2018,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2022,14 +2034,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2039,11 +2051,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2055,14 +2067,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2072,14 +2084,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2088,14 +2100,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2105,14 +2117,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2121,14 +2133,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2138,14 +2150,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2154,14 +2166,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2171,14 +2183,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2187,14 +2199,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2204,14 +2216,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2220,7 +2232,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2237,11 +2249,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2253,14 +2265,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2277,7 +2289,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2303,14 +2315,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2319,14 +2331,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2336,14 +2348,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2359,7 +2371,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2369,14 +2381,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2385,31 +2397,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2418,31 +2430,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2468,14 +2480,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2484,31 +2496,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2517,28 +2529,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2550,28 +2562,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2583,20 +2595,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2604,7 +2616,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2616,7 +2628,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2629,18 +2641,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>154</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2649,7 +2661,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2662,18 +2674,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2682,31 +2694,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2715,28 +2727,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2748,7 +2760,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2761,18 +2773,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2781,31 +2793,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2814,31 +2826,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2847,31 +2859,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2893,53 +2905,86 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>175</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>176</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>134</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>118</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2594.0799999999999</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>173</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
-        <v>174</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
-        <v>175</v>
-      </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2679.0799999999999</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>177</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>178</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>179</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3213,10 +3258,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -83,6 +83,12 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>ANGIOSARTAN PLUS 40/25MG 28 F.C. TABS.</t>
   </si>
   <si>
@@ -173,9 +179,6 @@
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>142.50</t>
   </si>
   <si>
@@ -236,117 +239,144 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
   </si>
   <si>
+    <t>570.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:10</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS 50 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>151.50</t>
+  </si>
+  <si>
+    <t>49.9950</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>MOVENTOR 20 TABS.</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>-195.0000</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>OST-MAP 60MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>228.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:10</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>GLIPTUS 50 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>151.50</t>
-  </si>
-  <si>
-    <t>49.9950</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>OST-MAP 60MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
     <t>19.00</t>
   </si>
   <si>
@@ -407,7 +437,7 @@
     <t>TELFAST 180MG 20 F.C. TABS</t>
   </si>
   <si>
-    <t>144.0000</t>
+    <t>288.0000</t>
   </si>
   <si>
     <t>TEMPO COOL</t>
@@ -1292,11 +1322,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1308,14 +1338,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1325,14 +1355,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1341,14 +1371,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1358,14 +1388,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1374,14 +1404,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1391,14 +1421,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1407,14 +1437,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1424,14 +1454,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1440,14 +1470,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1457,14 +1487,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1473,14 +1503,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1490,11 +1520,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1506,14 +1536,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1523,11 +1553,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1539,14 +1569,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1556,14 +1586,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1572,14 +1602,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1589,14 +1619,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1605,14 +1635,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1622,11 +1652,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1638,14 +1668,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1655,14 +1685,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1671,14 +1701,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1688,11 +1718,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1704,14 +1734,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1721,14 +1751,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1737,14 +1767,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1754,14 +1784,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1770,14 +1800,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1787,14 +1817,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1803,14 +1833,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1820,14 +1850,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1836,14 +1866,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1853,14 +1883,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1869,14 +1899,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1886,14 +1916,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1902,14 +1932,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1919,14 +1949,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1935,14 +1965,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1952,11 +1982,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1968,14 +1998,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1985,14 +2015,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2001,14 +2031,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2018,14 +2048,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2034,14 +2064,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2051,11 +2081,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2067,14 +2097,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2084,14 +2114,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2100,14 +2130,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2117,14 +2147,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2133,7 +2163,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2150,14 +2180,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2166,14 +2196,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2183,14 +2213,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2199,14 +2229,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2216,14 +2246,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2232,14 +2262,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2249,14 +2279,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2265,14 +2295,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2282,14 +2312,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2298,14 +2328,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2315,14 +2345,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2331,14 +2361,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2348,14 +2378,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2364,14 +2394,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2381,14 +2411,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2397,14 +2427,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2414,7 +2444,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2437,13 +2467,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2454,7 +2484,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2470,7 +2500,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2480,11 +2510,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2496,14 +2526,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2513,14 +2543,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2529,31 +2559,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2562,31 +2592,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2595,28 +2625,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2628,31 +2658,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2661,31 +2691,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2694,31 +2724,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>161</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2727,28 +2757,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2760,28 +2790,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2800,24 +2830,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2826,31 +2856,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2859,31 +2889,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2892,31 +2922,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2925,66 +2955,198 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>178</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>179</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>144</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>162</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2679.0799999999999</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>177</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>178</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
-        <v>179</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>180</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>27</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>144</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>156</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>181</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>182</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>144</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>183</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>185</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>186</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>144</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>128</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>3362.0799999999999</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>187</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>188</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>189</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3263,10 +3425,30 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -242,108 +242,108 @@
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>570.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:10</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS 50 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>151.50</t>
+  </si>
+  <si>
+    <t>49.9950</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>MOVENTOR 20 TABS.</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>-195.0000</t>
+  </si>
+  <si>
     <t>0:-1</t>
   </si>
   <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>228.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>570.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:10</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS 50 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>151.50</t>
-  </si>
-  <si>
-    <t>49.9950</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>MOVENTOR 20 TABS.</t>
-  </si>
-  <si>
-    <t>390.00</t>
-  </si>
-  <si>
-    <t>-195.0000</t>
-  </si>
-  <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
@@ -572,7 +572,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 6:23 PM</t>
+    <t>Monday, 28 July, 2025 6:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1873,7 +1873,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1883,11 +1883,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>23</v>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1916,11 +1916,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>73</v>
@@ -1932,14 +1932,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1949,14 +1949,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>85</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>86</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2015,11 +2015,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2048,11 +2048,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2081,11 +2081,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2097,14 +2097,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2147,11 +2147,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2180,11 +2180,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2213,14 +2213,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>110</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>77</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2484,7 +2484,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -287,6 +287,15 @@
     <t>49.9950</t>
   </si>
   <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -401,6 +410,21 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:74</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>21.1200</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
     <t>RASPELOCIN 400MG 5 F.C.TAB</t>
   </si>
   <si>
@@ -461,6 +485,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>11:1</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -572,7 +605,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 6:24 PM</t>
+    <t>Monday, 28 July, 2025 6:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2071,7 +2104,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2088,7 +2121,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2104,7 +2137,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2114,14 +2147,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2137,7 +2170,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2147,14 +2180,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2170,7 +2203,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2203,7 +2236,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2220,7 +2253,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2229,14 +2262,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2246,14 +2279,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2269,7 +2302,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2286,7 +2319,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2302,7 +2335,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2319,7 +2352,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2335,7 +2368,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2345,14 +2378,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2361,14 +2394,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2385,7 +2418,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2401,7 +2434,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2418,7 +2451,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2484,7 +2517,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>85</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2493,14 +2526,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2510,11 +2543,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2526,14 +2559,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2543,14 +2576,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2559,14 +2592,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2576,14 +2609,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2592,31 +2625,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2625,14 +2658,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2642,14 +2675,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2658,31 +2691,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2691,24 +2724,24 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2737,15 +2770,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2757,31 +2790,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2790,28 +2823,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2823,31 +2856,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>168</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2856,31 +2889,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>171</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2889,28 +2922,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2922,7 +2955,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2935,18 +2968,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2955,7 +2988,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2968,18 +3001,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2988,28 +3021,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3021,7 +3054,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3034,18 +3067,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3054,31 +3087,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3087,66 +3120,165 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>3362.0799999999999</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>187</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>188</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>189</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>191</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>27</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>152</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>167</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>192</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>193</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>152</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>194</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>196</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>197</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>152</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>131</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>3474.1999999999998</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>198</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>199</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>200</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3445,10 +3577,25 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -137,7 +137,7 @@
     <t>49.00</t>
   </si>
   <si>
-    <t>49.0000</t>
+    <t>98.0000</t>
   </si>
   <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
@@ -167,6 +167,18 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -335,12 +347,6 @@
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>MOVENTOR 20 TABS.</t>
   </si>
   <si>
@@ -476,6 +482,12 @@
     <t>51.2850</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -504,6 +516,15 @@
   </si>
   <si>
     <t>4.0000</t>
+  </si>
+  <si>
+    <t>WELLMETAZONE 0.1% CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>37.50</t>
+  </si>
+  <si>
+    <t>37.5000</t>
   </si>
   <si>
     <t>امواس لورد</t>
@@ -1510,7 +1531,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1527,7 +1548,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1642,7 +1663,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1652,11 +1673,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1668,14 +1689,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1685,14 +1706,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1701,14 +1722,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1718,11 +1739,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1734,14 +1755,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1751,14 +1772,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1767,14 +1788,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1784,11 +1805,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1800,14 +1821,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1817,14 +1838,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1833,14 +1854,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1850,14 +1871,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1866,14 +1887,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1890,7 +1911,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1906,7 +1927,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1916,14 +1937,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1932,14 +1953,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1949,14 +1970,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1965,14 +1986,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1982,14 +2003,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1998,14 +2019,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2022,7 +2043,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2031,14 +2052,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2048,14 +2069,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2064,14 +2085,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2081,11 +2102,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2097,7 +2118,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2114,11 +2135,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2130,14 +2151,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2147,14 +2168,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2163,14 +2184,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2180,14 +2201,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2196,14 +2217,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2213,14 +2234,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2229,14 +2250,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2246,11 +2267,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2262,14 +2283,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2279,14 +2300,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2295,14 +2316,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2312,14 +2333,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2328,14 +2349,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2345,14 +2366,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2361,14 +2382,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2378,14 +2399,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2394,14 +2415,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2411,14 +2432,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2427,14 +2448,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2444,14 +2465,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2460,14 +2481,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2477,14 +2498,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2493,14 +2514,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2510,14 +2531,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2526,14 +2547,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2543,14 +2564,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2559,14 +2580,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2576,14 +2597,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2592,14 +2613,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,14 +2630,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2625,14 +2646,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,14 +2663,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2658,14 +2679,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2675,14 +2696,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2698,24 +2719,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2724,31 +2745,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2757,14 +2778,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2774,11 +2795,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2790,14 +2811,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2807,14 +2828,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2823,28 +2844,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2856,20 +2877,20 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2880,7 +2901,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2889,28 +2910,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2922,28 +2943,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2955,31 +2976,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>179</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2988,31 +3009,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>182</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3021,28 +3042,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3054,7 +3075,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3067,18 +3088,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3100,18 +3121,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3120,28 +3141,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3153,7 +3174,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3166,18 +3187,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3186,31 +3207,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3232,53 +3253,152 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>3474.1999999999998</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>198</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>27</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>154</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>174</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>199</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
         <v>200</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>154</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>201</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>203</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>204</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>154</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>133</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3646.6999999999998</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>205</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>206</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>207</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3592,10 +3712,25 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -626,7 +626,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 6:30 PM</t>
+    <t>Monday, 28 July, 2025 6:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1993,7 +1993,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>102.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
@@ -137,7 +149,10 @@
     <t>49.00</t>
   </si>
   <si>
-    <t>98.0000</t>
+    <t>196.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
@@ -389,9 +404,6 @@
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>19.00</t>
   </si>
   <si>
@@ -533,12 +545,6 @@
     <t>39:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -626,7 +632,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 6:41 PM</t>
+    <t>Monday, 28 July, 2025 6:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1343,11 +1349,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1359,14 +1365,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1392,14 +1398,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1409,14 +1415,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1432,7 +1438,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1442,14 +1448,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1458,14 +1464,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1475,14 +1481,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1491,14 +1497,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1531,7 +1537,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1541,14 +1547,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1557,14 +1563,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1574,14 +1580,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1590,14 +1596,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1607,14 +1613,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1623,14 +1629,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1640,14 +1646,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1656,14 +1662,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1673,11 +1679,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1689,14 +1695,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1706,14 +1712,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1722,14 +1728,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1739,11 +1745,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1755,14 +1761,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1772,14 +1778,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1788,14 +1794,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1805,11 +1811,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1821,7 +1827,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1838,14 +1844,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1854,14 +1860,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1871,11 +1877,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1887,14 +1893,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1904,14 +1910,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1920,14 +1926,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1937,14 +1943,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1953,14 +1959,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1970,14 +1976,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1986,14 +1992,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2003,14 +2009,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2019,14 +2025,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2036,14 +2042,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2059,7 +2065,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2069,14 +2075,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2085,14 +2091,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2102,11 +2108,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2118,14 +2124,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2135,14 +2141,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2151,14 +2157,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2168,14 +2174,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2184,14 +2190,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2201,11 +2207,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2217,14 +2223,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2234,14 +2240,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2250,14 +2256,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2267,14 +2273,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2283,14 +2289,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2300,14 +2306,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2316,14 +2322,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2333,14 +2339,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2349,14 +2355,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2366,14 +2372,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2382,14 +2388,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2399,11 +2405,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2415,14 +2421,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2432,14 +2438,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2448,14 +2454,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2465,14 +2471,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2481,14 +2487,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2498,11 +2504,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2514,14 +2520,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2531,11 +2537,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2547,14 +2553,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2571,7 +2577,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2580,14 +2586,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2604,7 +2610,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2613,14 +2619,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2637,7 +2643,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2653,7 +2659,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2663,14 +2669,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2679,14 +2685,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2696,11 +2702,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2712,14 +2718,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2729,14 +2735,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2745,31 +2751,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2785,24 +2791,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2811,14 +2817,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2828,14 +2834,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2844,14 +2850,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2861,14 +2867,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2877,14 +2883,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2894,14 +2900,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2917,7 +2923,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2927,14 +2933,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2943,20 +2949,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2967,7 +2973,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2989,18 +2995,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3022,18 +3028,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3042,31 +3048,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3082,24 +3088,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3108,31 +3114,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3141,31 +3147,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3174,31 +3180,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3207,31 +3213,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3247,24 +3253,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3280,24 +3286,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3306,28 +3312,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>27</v>
@@ -3339,66 +3345,99 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3646.6999999999998</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>205</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
         <v>206</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>158</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>137</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3759.6999999999998</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
         <v>207</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>208</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>209</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3727,10 +3766,15 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -632,7 +632,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 6:42 PM</t>
+    <t>Monday, 28 July, 2025 6:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -230,6 +230,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>DIFLUSTERO 0.05% EYE EMULSION 5 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -419,6 +428,18 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>PIO WELL GEL</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
     <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
@@ -485,9 +506,6 @@
     <t>TEMPO COOL</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>34.19</t>
   </si>
   <si>
@@ -632,7 +650,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 6:46 PM</t>
+    <t>Monday, 28 July, 2025 6:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1867,7 +1885,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1881,7 +1899,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1893,14 +1911,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1910,14 +1928,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1933,7 +1951,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1943,14 +1961,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1966,7 +1984,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1976,14 +1994,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1992,14 +2010,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2016,7 +2034,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2032,7 +2050,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2042,14 +2060,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2058,14 +2076,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2075,14 +2093,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2091,14 +2109,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2108,14 +2126,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>97</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2131,7 +2149,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2148,7 +2166,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2164,7 +2182,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2230,7 +2248,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2247,7 +2265,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2263,7 +2281,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2273,14 +2291,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2296,7 +2314,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2306,14 +2324,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2329,7 +2347,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2339,11 +2357,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2355,14 +2373,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2372,14 +2390,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2388,14 +2406,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2405,14 +2423,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>123</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2428,7 +2446,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2445,7 +2463,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2461,7 +2479,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2478,7 +2496,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2494,7 +2512,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2511,7 +2529,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2527,7 +2545,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2544,7 +2562,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2560,7 +2578,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2577,7 +2595,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2593,13 +2611,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2610,7 +2628,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>143</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2619,7 +2637,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2636,11 +2654,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2652,14 +2670,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2669,14 +2687,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>150</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>94</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2692,7 +2710,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2702,11 +2720,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2718,14 +2736,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2735,14 +2753,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2751,14 +2769,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2768,14 +2786,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2784,31 +2802,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2817,14 +2835,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2834,14 +2852,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2850,31 +2868,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2883,14 +2901,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2900,7 +2918,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2933,14 +2951,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2949,14 +2967,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2966,11 +2984,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2982,31 +3000,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3015,28 +3033,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3048,28 +3066,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3088,21 +3106,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3121,24 +3139,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3147,7 +3165,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3160,18 +3178,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3187,24 +3205,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>194</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3226,18 +3244,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3246,31 +3264,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3279,28 +3297,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3312,7 +3330,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3325,15 +3343,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>27</v>
@@ -3345,31 +3363,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3378,66 +3396,132 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q71" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>207</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>208</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>140</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>209</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>211</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>212</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>140</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>144</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q73" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3759.6999999999998</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>207</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>208</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>209</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3974.6999999999998</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>213</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>214</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>215</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3771,10 +3855,20 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -230,15 +230,6 @@
     <t>39.0000</t>
   </si>
   <si>
-    <t>DIFLUSTERO 0.05% EYE EMULSION 5 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -650,7 +641,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 6:48 PM</t>
+    <t>Monday, 28 July, 2025 7:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1885,7 +1876,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1899,7 +1890,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1911,14 +1902,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1928,14 +1919,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1951,7 +1942,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1961,14 +1952,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1984,7 +1975,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1994,14 +1985,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2010,14 +2001,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2034,7 +2025,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2050,7 +2041,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2060,14 +2051,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2076,14 +2067,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2093,14 +2084,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2109,14 +2100,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2126,14 +2117,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2149,7 +2140,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2166,7 +2157,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2182,7 +2173,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2248,7 +2239,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2265,7 +2256,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2281,7 +2272,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2291,14 +2282,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2314,7 +2305,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2324,14 +2315,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2347,7 +2338,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2357,11 +2348,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2373,14 +2364,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2390,14 +2381,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2406,14 +2397,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2423,14 +2414,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2446,7 +2437,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2463,7 +2454,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2479,7 +2470,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2496,7 +2487,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2512,7 +2503,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2529,7 +2520,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2545,7 +2536,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2562,7 +2553,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2578,24 +2569,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2604,7 +2595,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2617,7 +2608,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2644,7 +2635,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2654,14 +2645,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2670,14 +2661,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2687,14 +2678,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2710,7 +2701,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2720,14 +2711,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2736,14 +2727,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2753,14 +2744,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2769,14 +2760,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2786,14 +2777,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2809,7 +2800,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2819,14 +2810,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2835,31 +2826,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2875,24 +2866,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2901,14 +2892,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2918,7 +2909,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2951,7 +2942,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -2984,14 +2975,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3000,14 +2991,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3024,7 +3015,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3040,21 +3031,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3066,20 +3057,20 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3099,28 +3090,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3132,20 +3123,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3153,7 +3144,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3165,7 +3156,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3178,18 +3169,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3211,15 +3202,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>194</v>
@@ -3238,13 +3229,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3252,10 +3243,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>197</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3271,21 +3262,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3297,7 +3288,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3310,18 +3301,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3330,31 +3321,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>59</v>
+        <v>185</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3363,31 +3354,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3396,31 +3387,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3429,99 +3420,66 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3929.6999999999998</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
         <v>210</v>
       </c>
-      <c t="s" r="Q72" s="12">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" ht="24.75" customHeight="1">
-      <c r="A73" s="7">
-        <v>67</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c t="s" r="C73" s="8">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
         <v>211</v>
       </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c t="s" r="H73" s="9">
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
         <v>212</v>
       </c>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c t="s" r="L73" s="10">
-        <v>140</v>
-      </c>
-      <c r="M73" s="10"/>
-      <c t="s" r="N73" s="8">
-        <v>144</v>
-      </c>
-      <c r="O73" s="8"/>
-      <c t="s" r="P73" s="11">
-        <v>145</v>
-      </c>
-      <c t="s" r="Q73" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3974.6999999999998</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>213</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>214</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
-        <v>215</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3860,15 +3818,10 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -101,12 +101,21 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>ANGIOSARTAN PLUS 40/25MG 28 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>82.00</t>
   </si>
   <si>
@@ -161,7 +170,7 @@
     <t>86.00</t>
   </si>
   <si>
-    <t>43.0000</t>
+    <t>86.0000</t>
   </si>
   <si>
     <t>CETAL 1000MG 15 TABS</t>
@@ -176,9 +185,6 @@
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -245,6 +251,12 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
@@ -257,9 +269,6 @@
     <t>EPICEPHIN 1 GM I.M. VIAL</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -506,9 +515,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -641,7 +647,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 7:35 PM</t>
+    <t>Monday, 28 July, 2025 7:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1497,7 +1503,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1530,7 +1536,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1546,7 +1552,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1556,14 +1562,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1572,14 +1578,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1596,7 +1602,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1605,14 +1611,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1622,14 +1628,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>50</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1645,7 +1651,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1662,7 +1668,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1678,7 +1684,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1711,7 +1717,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1721,14 +1727,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1737,14 +1743,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1754,11 +1760,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1770,14 +1776,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1787,14 +1793,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1803,14 +1809,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1820,11 +1826,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1836,14 +1842,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1853,14 +1859,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1869,14 +1875,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1886,11 +1892,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1909,7 +1915,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1919,14 +1925,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1935,14 +1941,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1952,14 +1958,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1968,14 +1974,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1985,14 +1991,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2001,7 +2007,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2018,11 +2024,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>27</v>
@@ -2034,14 +2040,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2055,10 +2061,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2067,14 +2073,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2084,14 +2090,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2100,14 +2106,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2117,14 +2123,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2133,14 +2139,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2150,14 +2156,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2166,14 +2172,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2183,14 +2189,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2199,14 +2205,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2216,11 +2222,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2232,14 +2238,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2249,14 +2255,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2265,14 +2271,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2282,14 +2288,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2298,7 +2304,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2315,11 +2321,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2331,14 +2337,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2348,14 +2354,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2364,14 +2370,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2381,14 +2387,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2397,14 +2403,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2414,11 +2420,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2430,14 +2436,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2447,14 +2453,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2463,14 +2469,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2480,14 +2486,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2496,14 +2502,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2513,14 +2519,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2529,14 +2535,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2546,14 +2552,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2562,28 +2568,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2595,14 +2601,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2612,14 +2618,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2628,31 +2634,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2661,7 +2667,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2678,11 +2684,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2694,14 +2700,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2711,14 +2717,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>94</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2727,14 +2733,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2744,11 +2750,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2760,14 +2766,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2777,14 +2783,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2793,14 +2799,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2810,14 +2816,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2826,31 +2832,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2859,14 +2865,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2876,14 +2882,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2892,31 +2898,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2925,14 +2931,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2942,11 +2948,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2958,14 +2964,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2975,14 +2981,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2991,14 +2997,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3008,11 +3014,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3024,31 +3030,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3057,28 +3063,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3090,28 +3096,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3123,28 +3129,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3156,31 +3162,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3189,7 +3195,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3202,18 +3208,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>194</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3222,31 +3228,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3255,7 +3261,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3268,18 +3274,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3288,31 +3294,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>59</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3321,28 +3327,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3354,7 +3360,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3367,15 +3373,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>27</v>
@@ -3387,31 +3393,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3420,66 +3426,132 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q72" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>206</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>207</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>140</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>208</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>210</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>211</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>140</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>144</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>3929.6999999999998</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>210</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>211</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>4044.6999999999998</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
         <v>212</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>213</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>214</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3818,10 +3890,20 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -392,6 +392,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
@@ -401,6 +410,15 @@
     <t>79.2000</t>
   </si>
   <si>
+    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>OST-MAP 60MG 20 CAPS.</t>
   </si>
   <si>
@@ -578,6 +596,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">خيط اسنان </t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -647,7 +674,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 7:39 PM</t>
+    <t>Monday, 28 July, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2509,7 +2536,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2526,7 +2553,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2542,7 +2569,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2559,7 +2586,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2575,7 +2602,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2608,7 +2635,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2625,7 +2652,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2641,21 +2668,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2667,14 +2694,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2684,14 +2711,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2700,31 +2727,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2733,7 +2760,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2750,11 +2777,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2766,14 +2793,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2783,14 +2810,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>97</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2799,14 +2826,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2816,11 +2843,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2832,14 +2859,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2849,14 +2876,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2865,14 +2892,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2882,14 +2909,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2898,31 +2925,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2931,14 +2958,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2948,14 +2975,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2964,31 +2991,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2997,14 +3024,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3014,11 +3041,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3047,14 +3074,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3063,14 +3090,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3080,11 +3107,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3096,31 +3123,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3129,28 +3156,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3162,28 +3189,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3202,21 +3229,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3235,24 +3262,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3261,7 +3288,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3274,18 +3301,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3294,28 +3321,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3340,18 +3367,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3360,7 +3387,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3373,18 +3400,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3393,28 +3420,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3426,7 +3453,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3439,18 +3466,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3459,31 +3486,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3492,66 +3519,165 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>4044.6999999999998</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>212</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>213</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>214</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>31</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>146</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>14</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>215</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>216</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>146</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>217</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>219</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>220</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>146</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>150</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>4214.1999999999998</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>221</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>222</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>223</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3900,10 +4026,25 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -143,13 +143,13 @@
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>1:3</t>
+    <t>0:3</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>7.6800</t>
+    <t>55.6800</t>
   </si>
   <si>
     <t>CALAMYL LOTION 100 ML</t>
@@ -305,6 +305,24 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FOLICAP 2.5MG 24 CAP</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>6.2500</t>
+  </si>
+  <si>
     <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
   </si>
   <si>
@@ -614,10 +632,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>12:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -674,7 +689,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 7:43 PM</t>
+    <t>Monday, 28 July, 2025 7:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1629,7 +1644,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2206,7 +2221,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2239,7 +2254,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2272,7 +2287,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2289,7 +2304,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2305,7 +2320,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2338,7 +2353,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2355,7 +2370,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2371,7 +2386,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2381,14 +2396,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2437,7 +2452,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2447,14 +2462,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2463,14 +2478,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2480,14 +2495,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2496,14 +2511,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2513,11 +2528,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2529,14 +2544,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2546,14 +2561,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>129</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2569,7 +2584,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2586,7 +2601,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2635,7 +2650,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2652,7 +2667,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2668,7 +2683,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2701,7 +2716,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2718,7 +2733,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2734,21 +2749,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2760,14 +2775,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2777,14 +2792,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2793,31 +2808,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2826,7 +2841,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2843,11 +2858,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2859,14 +2874,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2876,14 +2891,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>97</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2892,14 +2907,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2909,11 +2924,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2925,14 +2940,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,14 +2957,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2958,14 +2973,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2975,14 +2990,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2991,31 +3006,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3024,14 +3039,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3041,14 +3056,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3057,31 +3072,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3090,14 +3105,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3107,11 +3122,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3140,14 +3155,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3156,14 +3171,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3173,11 +3188,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3189,31 +3204,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3222,28 +3237,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3255,28 +3270,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3295,21 +3310,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3321,20 +3336,20 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3342,7 +3357,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3354,7 +3369,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3367,18 +3382,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3387,7 +3402,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3400,18 +3415,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3427,24 +3442,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3453,7 +3468,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3466,18 +3481,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3486,31 +3501,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>61</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3519,28 +3534,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3552,7 +3567,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3565,15 +3580,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>27</v>
@@ -3585,31 +3600,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3625,59 +3640,125 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>4214.1999999999998</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>220</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
         <v>221</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>152</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
         <v>222</v>
       </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
         <v>223</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c t="s" r="Q78" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>224</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>225</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>152</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>156</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>4356.4499999999998</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>226</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>227</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>228</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4041,10 +4122,20 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -689,7 +689,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 7:45 PM</t>
+    <t>Monday, 28 July, 2025 7:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -113,6 +113,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
     <t>ANGIOSARTAN PLUS 40/25MG 28 F.C. TABS.</t>
   </si>
   <si>
@@ -170,7 +179,7 @@
     <t>86.00</t>
   </si>
   <si>
-    <t>86.0000</t>
+    <t>129.0000</t>
   </si>
   <si>
     <t>CETAL 1000MG 15 TABS</t>
@@ -356,7 +365,7 @@
     <t>173.00</t>
   </si>
   <si>
-    <t>86.5000</t>
+    <t>173.0000</t>
   </si>
   <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
@@ -371,10 +380,10 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>72.0000</t>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>1:3</t>
   </si>
   <si>
     <t>LARYPRO 20 LOZENGES</t>
@@ -632,7 +641,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>18:0</t>
+    <t>40.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1528,7 +1537,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1545,7 +1554,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1578,7 +1587,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1611,7 +1620,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1627,7 +1636,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1637,14 +1646,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1653,14 +1662,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1677,7 +1686,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1686,14 +1695,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1703,14 +1712,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1726,7 +1735,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1743,7 +1752,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1759,7 +1768,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1769,11 +1778,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1785,14 +1794,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1802,14 +1811,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1818,14 +1827,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1858,7 +1867,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1875,7 +1884,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1891,7 +1900,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1901,7 +1910,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1924,7 +1933,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1934,14 +1943,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1957,7 +1966,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1971,7 +1980,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1983,14 +1992,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2000,14 +2009,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2033,14 +2042,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2049,14 +2058,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2066,14 +2075,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2089,7 +2098,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2106,7 +2115,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2122,7 +2131,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2139,7 +2148,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2155,7 +2164,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>81</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2214,14 +2223,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2231,14 +2240,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>100</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2254,7 +2263,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2271,7 +2280,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2287,7 +2296,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2304,7 +2313,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2320,7 +2329,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2337,7 +2346,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2353,7 +2362,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2419,7 +2428,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2452,7 +2461,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2462,14 +2471,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2485,7 +2494,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2495,14 +2504,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>124</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2518,7 +2527,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2528,11 +2537,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2544,14 +2553,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2561,14 +2570,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2577,14 +2586,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2594,14 +2603,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>132</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2617,7 +2626,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2650,7 +2659,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2667,7 +2676,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2683,7 +2692,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2700,7 +2709,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2716,7 +2725,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2733,7 +2742,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2749,7 +2758,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2766,7 +2775,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2782,7 +2791,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2799,7 +2808,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2815,24 +2824,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2841,7 +2850,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2854,7 +2863,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2881,7 +2890,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2891,14 +2900,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2907,14 +2916,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,14 +2933,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>165</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2947,7 +2956,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2957,14 +2966,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2973,14 +2982,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2990,14 +2999,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3006,14 +3015,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3023,14 +3032,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3046,7 +3055,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3056,14 +3065,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3072,31 +3081,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3112,24 +3121,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3138,14 +3147,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3155,11 +3164,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3188,7 +3197,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3221,14 +3230,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3237,14 +3246,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3261,7 +3270,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3277,21 +3286,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3303,20 +3312,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3336,28 +3345,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3369,20 +3378,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3415,7 +3424,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3423,7 +3432,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3435,7 +3444,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3448,18 +3457,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>207</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3468,7 +3477,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3481,18 +3490,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3508,13 +3517,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3522,10 +3531,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q73" s="12">
         <v>213</v>
-      </c>
-      <c t="s" r="Q73" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3541,21 +3550,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3567,7 +3576,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3580,18 +3589,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3600,31 +3609,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3633,31 +3642,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3666,31 +3675,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3699,66 +3708,99 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>4356.4499999999998</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>226</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>227</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
         <v>228</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>155</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>159</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>4526.4499999999998</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>229</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>230</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>231</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4132,10 +4174,15 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -698,7 +698,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 7:48 PM</t>
+    <t>Monday, 28 July, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -101,6 +101,18 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
   </si>
   <si>
@@ -302,234 +314,231 @@
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:10</t>
+    <t>1:7</t>
   </si>
   <si>
     <t>108.00</t>
   </si>
   <si>
-    <t>35.6400</t>
+    <t>62.6400</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FOLICAP 2.5MG 24 CAP</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>6.2500</t>
+  </si>
+  <si>
+    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS 50 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>151.50</t>
+  </si>
+  <si>
+    <t>49.9950</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>173.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>MOVENTOR 20 TABS.</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>-195.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>OST-MAP 60MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>PAROXETINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>PIO WELL GEL</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:74</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>21.1200</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>RASPELOCIN 400MG 5 F.C.TAB</t>
+  </si>
+  <si>
+    <t>66.50</t>
+  </si>
+  <si>
+    <t>66.5000</t>
+  </si>
+  <si>
+    <t>SILDAVA 100MG 12 TABLETS</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
   </si>
   <si>
     <t>0:4</t>
   </si>
   <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FOLICAP 2.5MG 24 CAP</t>
-  </si>
-  <si>
-    <t>12.50</t>
-  </si>
-  <si>
-    <t>6.2500</t>
-  </si>
-  <si>
-    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS 50 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>151.50</t>
-  </si>
-  <si>
-    <t>49.9950</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>173.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>MOVENTOR 20 TABS.</t>
-  </si>
-  <si>
-    <t>390.00</t>
-  </si>
-  <si>
-    <t>-195.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>19.5000</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>OST-MAP 60MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>PAROXETINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>PIO WELL GEL</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>170.00</t>
-  </si>
-  <si>
-    <t>170.0000</t>
-  </si>
-  <si>
-    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>QUIBRON T/SR 300MG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:74</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>21.1200</t>
-  </si>
-  <si>
-    <t>0:16</t>
-  </si>
-  <si>
-    <t>RASPELOCIN 400MG 5 F.C.TAB</t>
-  </si>
-  <si>
-    <t>66.50</t>
-  </si>
-  <si>
-    <t>66.5000</t>
-  </si>
-  <si>
-    <t>SILDAVA 100MG 12 TABLETS</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -698,7 +707,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 7:56 PM</t>
+    <t>Monday, 28 July, 2025 8:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1521,7 +1530,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1537,7 +1546,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1547,14 +1556,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1563,14 +1572,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1580,14 +1589,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1596,14 +1605,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1613,14 +1622,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1629,14 +1638,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1646,14 +1655,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1662,14 +1671,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1686,7 +1695,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1702,7 +1711,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1712,14 +1721,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1735,7 +1744,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1752,7 +1761,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1761,14 +1770,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1778,14 +1787,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1794,14 +1803,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1811,11 +1820,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1827,14 +1836,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1844,14 +1853,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1867,7 +1876,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1877,11 +1886,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1893,14 +1902,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1910,14 +1919,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1926,14 +1935,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1943,11 +1952,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1959,14 +1968,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1976,14 +1985,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1992,14 +2001,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2009,11 +2018,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2025,14 +2034,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2042,14 +2051,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2058,14 +2067,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2075,14 +2084,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2091,14 +2100,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2108,14 +2117,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2124,14 +2133,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2141,14 +2150,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2157,14 +2166,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2174,14 +2183,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2190,14 +2199,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2207,14 +2216,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2223,14 +2232,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2240,14 +2249,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2256,14 +2265,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2280,7 +2289,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2289,14 +2298,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2306,14 +2315,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2322,14 +2331,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2339,14 +2348,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2355,14 +2364,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2372,14 +2381,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2388,14 +2397,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2405,11 +2414,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2421,14 +2430,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2438,14 +2447,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2454,14 +2463,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2471,11 +2480,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2487,14 +2496,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2504,14 +2513,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2520,14 +2529,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2537,14 +2546,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2553,14 +2562,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2570,11 +2579,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2586,14 +2595,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2603,14 +2612,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2626,7 +2635,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2643,7 +2652,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2652,14 +2661,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2669,11 +2678,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2685,14 +2694,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2702,14 +2711,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2718,14 +2727,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2735,14 +2744,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2751,14 +2760,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2768,14 +2777,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2784,14 +2793,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2801,14 +2810,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2817,14 +2826,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2834,14 +2843,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2850,31 +2859,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2883,28 +2892,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2916,14 +2925,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2933,14 +2942,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>165</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2949,14 +2958,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2966,14 +2975,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2982,14 +2991,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2999,14 +3008,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3015,14 +3024,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3032,14 +3041,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3048,14 +3057,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3065,14 +3074,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3088,7 +3097,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3098,14 +3107,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3114,31 +3123,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3154,24 +3163,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3180,14 +3189,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3197,11 +3206,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3230,7 +3239,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3263,14 +3272,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3279,14 +3288,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3303,7 +3312,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3319,21 +3328,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3345,20 +3354,20 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3378,28 +3387,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3411,20 +3420,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3451,13 +3460,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3465,7 +3474,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3477,31 +3486,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>184</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3510,31 +3519,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>213</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3550,13 +3559,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3564,10 +3573,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>216</v>
-      </c>
-      <c t="s" r="Q74" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3583,21 +3592,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3609,31 +3618,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3642,31 +3651,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3675,31 +3684,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3708,31 +3717,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3741,66 +3750,99 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>4526.4499999999998</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>229</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>230</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
         <v>231</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>157</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>161</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4584.1400000000003</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>232</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>233</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>234</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4179,10 +4221,15 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -707,7 +707,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 8:01 PM</t>
+    <t>Monday, 28 July, 2025 8:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -407,6 +407,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>LEVANIC 500MG 7 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -539,6 +548,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>-35.6400</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -608,6 +626,12 @@
     <t>37.5000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
     <t>امواس لورد</t>
   </si>
   <si>
@@ -689,6 +713,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">مناديل جيب مبلله </t>
   </si>
   <si>
@@ -707,7 +734,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 8:06 PM</t>
+    <t>Monday, 28 July, 2025 8:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2602,7 +2629,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2612,11 +2639,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2628,14 +2655,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2645,14 +2672,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2661,14 +2688,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2678,14 +2705,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>139</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2701,7 +2728,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2734,7 +2761,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2751,7 +2778,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2767,7 +2794,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2784,7 +2811,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2800,7 +2827,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2817,7 +2844,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2833,7 +2860,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2850,7 +2877,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2866,7 +2893,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2876,14 +2903,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2892,31 +2919,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2925,7 +2952,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2938,7 +2965,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2965,7 +2992,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2975,14 +3002,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2991,14 +3018,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3008,14 +3035,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>170</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3031,7 +3058,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3041,14 +3068,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3057,14 +3084,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3074,14 +3101,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3090,14 +3117,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3107,14 +3134,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3123,14 +3150,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3140,14 +3167,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3156,31 +3183,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3189,14 +3216,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3206,14 +3233,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3222,31 +3249,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3255,14 +3282,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3272,11 +3299,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3305,14 +3332,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3321,14 +3348,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3338,11 +3365,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3354,31 +3381,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3387,28 +3414,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3420,28 +3447,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3460,21 +3487,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3486,28 +3513,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3519,31 +3546,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3552,7 +3579,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3565,18 +3592,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>216</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3585,28 +3612,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3631,18 +3658,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>162</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3651,7 +3678,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3664,18 +3691,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3684,28 +3711,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3717,7 +3744,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3730,18 +3757,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3750,31 +3777,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>68</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3783,66 +3810,165 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4584.1400000000003</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>232</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>233</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>35</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>160</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>14</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
         <v>234</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c t="s" r="Q82" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>235</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>236</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>160</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>237</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>239</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>240</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>160</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>164</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4751.5</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>241</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>242</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>243</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4226,10 +4352,25 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -734,7 +734,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 8:17 PM</t>
+    <t>Monday, 28 July, 2025 8:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -440,6 +440,12 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -734,7 +740,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 8:27 PM</t>
+    <t>Monday, 28 July, 2025 8:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2761,7 +2767,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2771,14 +2777,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2787,14 +2793,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2804,14 +2810,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2820,14 +2826,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2837,14 +2843,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2853,14 +2859,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2870,14 +2876,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2886,14 +2892,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2903,14 +2909,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2919,14 +2925,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2936,14 +2942,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2952,31 +2958,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2985,7 +2991,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2998,15 +3004,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3018,14 +3024,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3035,14 +3041,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3051,14 +3057,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3068,14 +3074,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3084,14 +3090,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3101,14 +3107,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3117,14 +3123,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3134,14 +3140,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>139</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3150,14 +3156,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3167,14 +3173,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3183,14 +3189,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3200,14 +3206,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3216,14 +3222,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3233,14 +3239,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3256,24 +3262,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3282,31 +3288,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3315,14 +3321,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3332,11 +3338,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3348,14 +3354,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3365,11 +3371,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3381,14 +3387,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3398,14 +3404,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3414,14 +3420,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3431,14 +3437,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3447,14 +3453,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3464,11 +3470,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3487,21 +3493,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3526,7 +3532,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3559,15 +3565,15 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3579,28 +3585,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3612,7 +3618,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3625,15 +3631,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3658,18 +3664,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3691,18 +3697,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>224</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3711,31 +3717,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3744,28 +3750,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3777,7 +3783,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3790,18 +3796,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3817,24 +3823,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3850,24 +3856,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>35</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3883,24 +3889,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3909,66 +3915,99 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4751.5</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>241</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
         <v>242</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>162</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>166</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4775.5</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
         <v>243</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>244</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>245</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4367,10 +4406,15 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>DIFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -398,6 +407,15 @@
     <t>1:3</t>
   </si>
   <si>
+    <t>LAMIFEN 250MG 14 TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -740,7 +758,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 8:48 PM</t>
+    <t>Monday, 28 July, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2074,7 +2092,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2088,7 +2106,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2100,14 +2118,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2117,14 +2135,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2150,14 +2168,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2166,14 +2184,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2183,14 +2201,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2206,7 +2224,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2223,7 +2241,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2239,7 +2257,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2256,7 +2274,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2272,7 +2290,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2282,14 +2300,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>88</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2298,14 +2316,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2315,14 +2333,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2331,14 +2349,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2348,14 +2366,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>107</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2371,7 +2389,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2388,7 +2406,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2404,7 +2422,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2421,7 +2439,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2437,7 +2455,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2454,7 +2472,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2470,7 +2488,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2503,7 +2521,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2520,7 +2538,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2536,7 +2554,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2569,7 +2587,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2579,14 +2597,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2602,7 +2620,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2612,14 +2630,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>131</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2635,7 +2653,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2652,7 +2670,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2668,7 +2686,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2678,11 +2696,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2694,7 +2712,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2711,14 +2729,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2727,14 +2745,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2744,11 +2762,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2760,14 +2778,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2777,14 +2795,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2793,14 +2811,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2810,11 +2828,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2826,14 +2844,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2843,7 +2861,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2899,7 +2917,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2916,7 +2934,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2932,7 +2950,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2965,7 +2983,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2975,14 +2993,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2991,28 +3009,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3024,14 +3042,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3041,14 +3059,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3057,31 +3075,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3090,7 +3108,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3107,11 +3125,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3123,14 +3141,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3140,14 +3158,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3156,14 +3174,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3173,14 +3191,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3189,14 +3207,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3206,14 +3224,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3222,14 +3240,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3239,14 +3257,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3255,14 +3273,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3272,14 +3290,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3288,31 +3306,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3321,14 +3339,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3338,14 +3356,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3354,31 +3372,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3387,14 +3405,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3404,11 +3422,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3437,14 +3455,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3453,14 +3471,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3470,11 +3488,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3486,14 +3504,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3507,10 +3525,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3519,28 +3537,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3552,28 +3570,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3585,28 +3603,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3625,21 +3643,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3651,20 +3669,20 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3672,7 +3690,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3684,7 +3702,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3697,18 +3715,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3717,7 +3735,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3730,18 +3748,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>65</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>226</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3750,31 +3768,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3796,18 +3814,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3816,31 +3834,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3849,28 +3867,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>35</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3882,7 +3900,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3895,18 +3913,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3915,31 +3933,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3955,59 +3973,125 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4775.5</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>243</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
         <v>244</v>
       </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>168</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
         <v>245</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>247</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>248</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>168</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>172</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4942.5</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>249</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>250</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>251</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4411,10 +4495,20 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -296,6 +296,9 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>DROPIFLOX OTIC DROPS 15 ML</t>
+  </si>
+  <si>
     <t>EPICEPHIN 1 GM I.M. VIAL</t>
   </si>
   <si>
@@ -305,6 +308,15 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -758,7 +770,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 8:50 PM</t>
+    <t>Monday, 28 July, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2267,14 +2279,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2283,14 +2295,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2300,14 +2312,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2316,14 +2328,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2333,14 +2345,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2349,14 +2361,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2366,14 +2378,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>107</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2382,14 +2394,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2399,14 +2411,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2415,14 +2427,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2432,14 +2444,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2448,14 +2460,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2465,11 +2477,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2481,14 +2493,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2498,11 +2510,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2514,14 +2526,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2531,14 +2543,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2547,14 +2559,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2564,14 +2576,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2580,14 +2592,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2597,14 +2609,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2613,14 +2625,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2630,14 +2642,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2646,14 +2658,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2663,14 +2675,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2679,14 +2691,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2696,14 +2708,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2712,14 +2724,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2729,14 +2741,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2745,14 +2757,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2762,11 +2774,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2802,7 +2814,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2811,14 +2823,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2828,11 +2840,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2844,14 +2856,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2861,14 +2873,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2877,14 +2889,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2894,11 +2906,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2910,14 +2922,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2927,11 +2939,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2943,7 +2955,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2960,11 +2972,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2976,14 +2988,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2993,14 +3005,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3009,14 +3021,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3026,11 +3038,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3042,14 +3054,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3059,14 +3071,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3082,21 +3094,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3108,14 +3120,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3125,14 +3137,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3141,31 +3153,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3174,7 +3186,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3191,11 +3203,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3207,14 +3219,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3224,14 +3236,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3240,14 +3252,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3257,14 +3269,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3273,14 +3285,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3290,14 +3302,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3313,7 +3325,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3323,14 +3335,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3346,7 +3358,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3356,14 +3368,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3372,31 +3384,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3405,14 +3417,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3422,14 +3434,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3445,24 +3457,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3478,7 +3490,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3488,11 +3500,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3504,14 +3516,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3521,14 +3533,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3537,14 +3549,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3554,11 +3566,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3570,14 +3582,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3587,14 +3599,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3603,28 +3615,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3643,21 +3655,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>57</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3682,15 +3694,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3702,28 +3714,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3735,28 +3747,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3768,7 +3780,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3781,18 +3793,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>201</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3814,7 +3826,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3822,10 +3834,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>232</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3834,31 +3846,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3867,7 +3879,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3880,18 +3892,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3907,24 +3919,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3933,28 +3945,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3979,18 +3991,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4012,18 +4024,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4032,66 +4044,132 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4942.5</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>247</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>248</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>172</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
         <v>249</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>250</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c t="s" r="Q88" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>251</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>252</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>172</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>176</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>5041.5</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>253</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>254</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>255</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4505,10 +4583,20 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>129.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
     <t>CETAL 1000MG 15 TABS</t>
   </si>
   <si>
@@ -401,6 +410,15 @@
     <t>173.0000</t>
   </si>
   <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>201.0000</t>
+  </si>
+  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
@@ -644,13 +662,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8497:0</t>
+    <t>8494:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t>WELLMETAZONE 0.1% CREAM 40 GM</t>
@@ -677,81 +695,93 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>27:0</t>
+    <t>26:0</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>79:0</t>
+    <t>78:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خيط اسنان </t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">خيط اسنان </t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>24:0</t>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>10.00</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">مناديل جيب مبلله </t>
   </si>
   <si>
@@ -770,7 +800,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 8:53 PM</t>
+    <t>Monday, 28 July, 2025 8:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1873,7 +1903,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1883,14 +1913,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1906,7 +1936,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1916,11 +1946,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1932,14 +1962,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1949,14 +1979,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1965,14 +1995,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2005,7 +2035,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2022,7 +2052,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2038,7 +2068,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2048,7 +2078,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2071,7 +2101,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2081,14 +2111,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2104,7 +2134,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2137,7 +2167,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2151,7 +2181,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2163,14 +2193,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2180,14 +2210,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2213,14 +2243,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2229,14 +2259,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2246,14 +2276,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2269,7 +2299,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2279,14 +2309,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2295,14 +2325,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2312,14 +2342,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2335,7 +2365,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2345,14 +2375,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2368,7 +2398,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2378,14 +2408,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2401,7 +2431,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2411,14 +2441,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>91</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2427,14 +2457,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2444,14 +2474,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2460,14 +2490,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2477,14 +2507,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>114</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2500,7 +2530,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2517,7 +2547,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2533,7 +2563,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2550,7 +2580,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2566,7 +2596,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2583,7 +2613,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2599,7 +2629,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2632,7 +2662,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2649,7 +2679,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2665,7 +2695,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2698,7 +2728,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2708,14 +2738,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>135</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2731,7 +2761,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2748,7 +2778,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2764,7 +2794,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2774,14 +2804,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>141</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2797,7 +2827,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2814,7 +2844,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2830,7 +2860,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2840,11 +2870,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2856,7 +2886,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2873,14 +2903,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2889,14 +2919,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2906,11 +2936,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2922,14 +2952,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2939,14 +2969,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2955,14 +2985,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2972,11 +3002,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2988,14 +3018,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3005,7 +3035,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3061,7 +3091,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3078,7 +3108,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3094,7 +3124,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3127,7 +3157,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3137,14 +3167,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3153,28 +3183,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3186,14 +3216,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3203,14 +3233,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3219,31 +3249,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3252,7 +3282,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3269,11 +3299,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3285,14 +3315,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3302,14 +3332,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3318,14 +3348,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3335,14 +3365,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3351,14 +3381,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3368,14 +3398,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3384,14 +3414,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3401,14 +3431,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3417,14 +3447,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3434,14 +3464,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3450,31 +3480,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3483,14 +3513,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3500,14 +3530,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3516,31 +3546,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3549,14 +3579,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3566,11 +3596,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3599,14 +3629,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3615,14 +3645,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3632,11 +3662,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3648,14 +3678,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3669,10 +3699,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3681,28 +3711,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3714,28 +3744,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>57</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3747,28 +3777,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3787,24 +3817,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3813,20 +3843,20 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3834,10 +3864,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3846,7 +3876,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3859,18 +3889,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3879,7 +3909,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3892,18 +3922,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>65</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>236</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3912,31 +3942,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3945,7 +3975,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3958,18 +3988,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>177</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3978,31 +4008,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4011,28 +4041,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>35</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4044,7 +4074,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4057,18 +4087,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4077,31 +4107,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4110,66 +4140,165 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>35</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>5041.5</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>253</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>254</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
-        <v>255</v>
-      </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>256</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>35</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>178</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>14</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>257</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>258</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>178</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>259</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>261</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>262</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>178</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>182</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>5451.5</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>263</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>264</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>265</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4593,10 +4722,25 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -800,7 +800,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 8:55 PM</t>
+    <t>Monday, 28 July, 2025 8:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -143,6 +143,18 @@
     <t>82.0000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>ARBATEG 2% SUSP. 100ML</t>
   </si>
   <si>
@@ -659,6 +671,18 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -719,6 +743,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>زيت دابر املا 270 مل</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -731,10 +764,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>21:0</t>
+    <t>28:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -800,7 +830,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 8:56 PM</t>
+    <t>Monday, 28 July, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1738,7 +1768,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1748,14 +1778,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1764,7 +1794,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1781,14 +1811,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1797,14 +1827,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1821,7 +1851,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1837,7 +1867,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1847,14 +1877,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1887,7 +1917,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1896,14 +1926,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1917,10 +1947,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1929,14 +1959,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1946,14 +1976,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1962,14 +1992,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1979,11 +2009,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1995,14 +2025,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2012,14 +2042,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2035,7 +2065,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2045,11 +2075,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2061,14 +2091,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2078,14 +2108,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2094,14 +2124,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2111,11 +2141,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2127,14 +2157,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2144,14 +2174,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2160,14 +2190,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2177,11 +2207,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2193,14 +2223,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2210,11 +2240,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2226,14 +2256,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2243,14 +2273,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2259,14 +2289,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2276,14 +2306,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2292,14 +2322,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2309,14 +2339,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2325,14 +2355,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2342,14 +2372,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2358,14 +2388,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2375,14 +2405,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2391,14 +2421,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2408,14 +2438,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2424,14 +2454,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2441,14 +2471,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2457,14 +2487,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2474,14 +2504,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2490,14 +2520,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2507,14 +2537,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2523,14 +2553,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2547,7 +2577,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2556,14 +2586,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2573,14 +2603,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2589,14 +2619,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2606,14 +2636,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2622,14 +2652,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2639,14 +2669,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2655,14 +2685,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2672,11 +2702,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2688,14 +2718,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2705,14 +2735,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2721,14 +2751,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2738,14 +2768,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2754,14 +2784,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2771,14 +2801,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2787,14 +2817,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2804,14 +2834,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2820,7 +2850,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2837,14 +2867,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2853,14 +2883,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2870,14 +2900,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2886,14 +2916,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2903,11 +2933,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2919,14 +2949,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2936,11 +2966,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2952,14 +2982,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2969,14 +2999,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2992,7 +3022,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3009,7 +3039,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3018,7 +3048,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3035,14 +3065,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3051,14 +3081,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3068,14 +3098,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3084,14 +3114,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3101,14 +3131,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3117,14 +3147,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3134,14 +3164,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3150,14 +3180,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3167,14 +3197,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3183,14 +3213,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3200,14 +3230,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3216,14 +3246,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3233,14 +3263,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3249,31 +3279,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3295,15 +3325,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3315,14 +3345,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3339,7 +3369,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3348,14 +3378,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3372,7 +3402,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3381,14 +3411,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3405,7 +3435,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3414,14 +3444,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3431,14 +3461,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>112</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>155</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3447,14 +3477,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3464,14 +3494,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3480,14 +3510,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3497,14 +3527,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3513,14 +3543,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3530,14 +3560,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3546,31 +3576,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3579,31 +3609,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3612,14 +3642,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3629,11 +3659,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3645,14 +3675,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3662,11 +3692,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3678,14 +3708,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3695,14 +3725,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3718,7 +3748,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3728,14 +3758,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3744,14 +3774,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>57</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3761,14 +3791,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3777,28 +3807,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3810,31 +3840,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3843,31 +3873,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3876,31 +3906,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3909,31 +3939,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3942,7 +3972,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3955,18 +3985,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>241</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3975,31 +4005,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>244</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4008,31 +4038,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4041,7 +4071,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4054,18 +4084,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4074,7 +4104,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4087,18 +4117,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>71</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>27</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4107,28 +4137,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4140,7 +4170,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4153,15 +4183,15 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4173,7 +4203,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4186,18 +4216,18 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>104</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4206,31 +4236,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4239,66 +4269,165 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>35</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>182</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>5451.5</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>263</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>264</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>265</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>266</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>35</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>182</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>14</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>267</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>268</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>182</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>269</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>271</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>272</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>182</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>186</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>5670.3299999999999</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>273</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>274</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>275</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4737,10 +4866,25 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -830,7 +830,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 9:02 PM</t>
+    <t>Monday, 28 July, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -671,18 +671,6 @@
     <t>54.0000</t>
   </si>
   <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -830,7 +818,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 9:08 PM</t>
+    <t>Monday, 28 July, 2025 9:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3765,7 +3753,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3781,7 +3769,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3791,14 +3779,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3807,14 +3795,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3824,11 +3812,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3840,28 +3828,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>61</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3873,14 +3861,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3894,10 +3882,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3906,14 +3894,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3923,11 +3911,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>27</v>
@@ -3946,7 +3934,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3956,14 +3944,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3972,14 +3960,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3989,11 +3977,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4005,14 +3993,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4022,14 +4010,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4038,7 +4026,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4055,14 +4043,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>61</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4071,7 +4059,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4088,14 +4076,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4104,14 +4092,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4121,14 +4109,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>72</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>254</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4137,14 +4125,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4154,11 +4142,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>186</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4170,7 +4158,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4187,14 +4175,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4203,14 +4191,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>35</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4220,14 +4208,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4236,14 +4224,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>35</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4253,11 +4241,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4269,7 +4257,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4286,14 +4274,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4302,14 +4290,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4319,14 +4307,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4352,82 +4340,49 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>186</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5653.5</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>269</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
         <v>270</v>
       </c>
-      <c t="s" r="Q94" s="12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="A95" s="7">
-        <v>89</v>
-      </c>
-      <c r="B95" s="7"/>
-      <c t="s" r="C95" s="8">
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
         <v>271</v>
       </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c t="s" r="H95" s="9">
-        <v>272</v>
-      </c>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c t="s" r="L95" s="10">
-        <v>182</v>
-      </c>
-      <c r="M95" s="10"/>
-      <c t="s" r="N95" s="8">
-        <v>186</v>
-      </c>
-      <c r="O95" s="8"/>
-      <c t="s" r="P95" s="11">
-        <v>187</v>
-      </c>
-      <c t="s" r="Q95" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>5670.3299999999999</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>273</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>274</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>275</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4876,15 +4831,10 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -800,6 +800,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">مناديل جيب مبلله </t>
   </si>
   <si>
@@ -818,7 +821,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 9:10 PM</t>
+    <t>Monday, 28 July, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4278,10 +4281,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>108</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4290,14 +4293,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4307,11 +4310,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>35</v>
@@ -4323,14 +4326,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4352,13 +4355,13 @@
     </row>
     <row r="95" ht="24.75" customHeight="1">
       <c r="P95" s="13">
-        <v>5653.5</v>
+        <v>5668.5</v>
       </c>
       <c r="Q95" s="13"/>
     </row>
     <row r="96" ht="16.5" customHeight="1">
       <c t="s" r="A96" s="14">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -4366,13 +4369,13 @@
       <c r="E96" s="14"/>
       <c r="F96" s="14"/>
       <c t="s" r="G96" s="15">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
       <c r="J96" s="16"/>
       <c t="s" r="K96" s="17">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L96" s="17"/>
       <c r="M96" s="17"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -242,6 +242,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -551,15 +563,27 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>PAROXETINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
+    <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
+  </si>
+  <si>
+    <t>575.00</t>
+  </si>
+  <si>
+    <t>575.0000</t>
+  </si>
+  <si>
     <t>PIO WELL GEL</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>170.00</t>
   </si>
   <si>
@@ -821,7 +845,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 9:11 PM</t>
+    <t>Monday, 28 July, 2025 9:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2089,7 +2113,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2099,11 +2123,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2115,14 +2139,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2132,14 +2156,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2148,14 +2172,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2165,11 +2189,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2181,14 +2205,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2198,14 +2222,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2214,14 +2238,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2231,11 +2255,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2247,14 +2271,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2264,11 +2288,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2280,14 +2304,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2297,14 +2321,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2313,14 +2337,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2330,14 +2354,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2346,14 +2370,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2363,14 +2387,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2379,14 +2403,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2396,14 +2420,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2412,14 +2436,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2429,14 +2453,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2445,14 +2469,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2462,14 +2486,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2478,14 +2502,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2495,14 +2519,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2511,14 +2535,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2528,14 +2552,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>98</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2544,14 +2568,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2561,14 +2585,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2577,14 +2601,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2601,7 +2625,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2610,14 +2634,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2627,14 +2651,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2643,14 +2667,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2660,14 +2684,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2676,14 +2700,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2693,14 +2717,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2709,14 +2733,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2726,11 +2750,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2742,14 +2766,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2759,14 +2783,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2775,14 +2799,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2792,14 +2816,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2808,14 +2832,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2825,14 +2849,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2841,14 +2865,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2858,14 +2882,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2874,7 +2898,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2891,14 +2915,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2907,14 +2931,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2924,14 +2948,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2940,14 +2964,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2957,11 +2981,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2973,14 +2997,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2990,11 +3014,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3006,14 +3030,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3023,14 +3047,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3046,7 +3070,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3063,7 +3087,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3072,7 +3096,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3089,14 +3113,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3105,14 +3129,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3122,14 +3146,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>56</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3138,14 +3162,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3155,14 +3179,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3171,14 +3195,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3188,14 +3212,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3204,14 +3228,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3221,14 +3245,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3237,14 +3261,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3254,14 +3278,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3270,14 +3294,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3287,14 +3311,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3303,31 +3327,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3336,14 +3360,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3353,14 +3377,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3369,14 +3393,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3386,14 +3410,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>192</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3402,7 +3426,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3415,15 +3439,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3435,14 +3459,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3452,14 +3476,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>200</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3468,14 +3492,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3485,14 +3509,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>159</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3501,14 +3525,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3518,11 +3542,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3534,14 +3558,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3558,7 +3582,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3567,14 +3591,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3584,14 +3608,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3600,7 +3624,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3613,18 +3637,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3640,7 +3664,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3650,14 +3674,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3666,14 +3690,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3683,14 +3707,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3699,31 +3723,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3732,14 +3756,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3749,14 +3773,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3765,14 +3789,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3782,11 +3806,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3798,14 +3822,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3815,11 +3839,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3831,31 +3855,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3864,31 +3888,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3897,31 +3921,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>61</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3937,21 +3961,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3963,31 +3987,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3996,31 +4020,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>35</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4029,7 +4053,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4042,18 +4066,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4069,13 +4093,13 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4083,10 +4107,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>72</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>250</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4102,13 +4126,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4119,7 +4143,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4141,18 +4165,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4161,7 +4185,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4174,18 +4198,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>75</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4194,28 +4218,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4227,7 +4251,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4240,15 +4264,15 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4260,7 +4284,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4273,18 +4297,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>98</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4293,31 +4317,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4333,59 +4357,158 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>35</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5668.5</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>270</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>35</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>185</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>14</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
         <v>271</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c t="s" r="Q95" s="12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>272</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>273</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>185</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>274</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>276</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>277</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>185</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>194</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>6303.5</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>278</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>279</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>280</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4834,10 +4957,25 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -650,6 +650,15 @@
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -845,7 +854,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 9:24 PM</t>
+    <t>Monday, 28 July, 2025 9:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3664,7 +3673,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3697,7 +3706,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3707,14 +3716,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3723,31 +3732,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3763,24 +3772,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3789,14 +3798,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3806,11 +3815,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3839,7 +3848,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3872,14 +3881,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3888,14 +3897,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3912,7 +3921,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3928,7 +3937,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3942,7 +3951,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3954,28 +3963,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>61</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3987,14 +3996,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4008,10 +4017,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4020,14 +4029,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4037,11 +4046,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>27</v>
@@ -4053,14 +4062,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4077,7 +4086,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4093,7 +4102,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4126,7 +4135,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4143,7 +4152,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4169,14 +4178,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>152</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>255</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4185,7 +4194,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4202,11 +4211,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>258</v>
@@ -4225,7 +4234,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4239,10 +4248,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q90" s="12">
         <v>261</v>
-      </c>
-      <c t="s" r="Q90" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4258,7 +4267,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4268,11 +4277,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4284,7 +4293,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4301,14 +4310,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4317,14 +4326,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>35</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4334,14 +4343,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>243</v>
+        <v>75</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4357,7 +4366,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4367,11 +4376,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4383,7 +4392,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4400,14 +4409,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4416,14 +4425,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>35</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4433,14 +4442,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>35</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4449,14 +4458,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4466,49 +4475,82 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>279</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>280</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>185</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>194</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>195</v>
       </c>
-      <c t="s" r="Q97" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>6303.5</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>278</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>279</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
-        <v>280</v>
-      </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>6345.0799999999999</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>281</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>282</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>283</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4972,10 +5014,15 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -572,15 +572,6 @@
     <t>PAROXETINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
-    <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
-  </si>
-  <si>
-    <t>575.00</t>
-  </si>
-  <si>
-    <t>575.0000</t>
-  </si>
-  <si>
     <t>PIO WELL GEL</t>
   </si>
   <si>
@@ -854,7 +845,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 9:25 PM</t>
+    <t>Monday, 28 July, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3409,13 +3400,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3448,7 +3439,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3475,7 +3466,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3485,14 +3476,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3501,14 +3492,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3518,14 +3509,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>200</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3541,7 +3532,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3551,14 +3542,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3567,14 +3558,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3584,14 +3575,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>208</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3607,7 +3598,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3617,14 +3608,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3633,7 +3624,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3650,14 +3641,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3673,7 +3664,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3706,7 +3697,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3716,14 +3707,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3732,31 +3723,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3772,24 +3763,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3798,14 +3789,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3815,11 +3806,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>37</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3848,7 +3839,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3881,14 +3872,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3897,14 +3888,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3921,7 +3912,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3937,7 +3928,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3951,7 +3942,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3963,28 +3954,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>61</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3996,14 +3987,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4017,10 +4008,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4029,14 +4020,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4046,11 +4037,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>27</v>
@@ -4062,14 +4053,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>35</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4086,7 +4077,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4102,7 +4093,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4135,7 +4126,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4152,7 +4143,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4178,14 +4169,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>61</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4194,7 +4185,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4211,11 +4202,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>258</v>
@@ -4234,7 +4225,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4248,10 +4239,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>261</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4267,7 +4258,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4277,11 +4268,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4293,7 +4284,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4310,14 +4301,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4326,14 +4317,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>35</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4343,14 +4334,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4366,7 +4357,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>35</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4376,11 +4367,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4392,7 +4383,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4409,14 +4400,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4425,14 +4416,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4442,14 +4433,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>102</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4458,14 +4449,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4475,82 +4466,49 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>5770.0799999999999</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
         <v>278</v>
       </c>
-      <c t="s" r="Q97" s="12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="98" ht="24.75" customHeight="1">
-      <c r="A98" s="7">
-        <v>92</v>
-      </c>
-      <c r="B98" s="7"/>
-      <c t="s" r="C98" s="8">
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
         <v>279</v>
       </c>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c t="s" r="H98" s="9">
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
         <v>280</v>
       </c>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c t="s" r="L98" s="10">
-        <v>185</v>
-      </c>
-      <c r="M98" s="10"/>
-      <c t="s" r="N98" s="8">
-        <v>194</v>
-      </c>
-      <c r="O98" s="8"/>
-      <c t="s" r="P98" s="11">
-        <v>195</v>
-      </c>
-      <c t="s" r="Q98" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>6345.0799999999999</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>281</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>282</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>283</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5014,15 +4972,10 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="H98:K98"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -518,6 +518,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>OFRAMAX 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>284.0000</t>
+  </si>
+  <si>
     <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -677,6 +686,15 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
+    <t>VELOSEF 1GM 8 TAB.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -776,7 +794,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>28:0</t>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>33:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -785,9 +806,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاش فازلين 10*20 سم </t>
   </si>
   <si>
@@ -845,7 +863,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 9:30 PM</t>
+    <t>Monday, 28 July, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3169,7 +3187,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3186,7 +3204,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3202,7 +3220,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3219,7 +3237,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3235,7 +3253,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3252,7 +3270,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3268,7 +3286,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3285,7 +3303,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3301,7 +3319,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3318,7 +3336,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3334,24 +3352,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3360,28 +3378,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3393,31 +3411,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3439,7 +3457,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3466,7 +3484,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3476,14 +3494,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>197</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3492,14 +3510,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3509,14 +3527,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q68" s="12">
         <v>200</v>
-      </c>
-      <c t="s" r="Q68" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3532,7 +3550,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3542,14 +3560,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3558,14 +3576,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3575,14 +3593,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>208</v>
-      </c>
-      <c t="s" r="Q70" s="12">
-        <v>163</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3598,7 +3616,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3608,14 +3626,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3624,7 +3642,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3641,14 +3659,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3664,7 +3682,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3697,7 +3715,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3707,14 +3725,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3723,31 +3741,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3763,24 +3781,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3789,14 +3807,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3806,11 +3824,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3829,7 +3847,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3839,7 +3857,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3872,14 +3890,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>49</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3888,14 +3906,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3905,11 +3923,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3921,14 +3939,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>61</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3942,10 +3960,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3954,28 +3972,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3987,31 +4005,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>61</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4020,31 +4038,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4060,24 +4078,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>35</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4086,20 +4104,20 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4110,7 +4128,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4132,7 +4150,7 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4143,7 +4161,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4159,24 +4177,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>152</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>255</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4185,7 +4203,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4198,18 +4216,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>258</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4218,31 +4236,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4251,7 +4269,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4264,18 +4282,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4284,31 +4302,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4317,28 +4335,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>35</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4350,7 +4368,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4363,18 +4381,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4383,31 +4401,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4416,31 +4434,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>35</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4456,59 +4474,125 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>35</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>5770.0799999999999</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>278</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
         <v>279</v>
       </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>188</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
         <v>280</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>282</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>283</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>188</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>194</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>6174.0799999999999</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>284</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>285</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>286</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4972,10 +5056,20 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -623,6 +623,15 @@
     <t>66.5000</t>
   </si>
   <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>SILDAVA 100MG 12 TABLETS</t>
   </si>
   <si>
@@ -863,7 +872,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 9:31 PM</t>
+    <t>Monday, 28 July, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3583,7 +3592,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3593,14 +3602,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>208</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3609,14 +3618,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3626,14 +3635,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>211</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>163</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3649,7 +3658,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3659,14 +3668,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3675,7 +3684,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3692,14 +3701,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>91</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3715,7 +3724,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3748,7 +3757,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3758,14 +3767,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3774,31 +3783,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3814,24 +3823,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>37</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3840,7 +3849,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3857,11 +3866,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3880,7 +3889,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3890,7 +3899,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3923,7 +3932,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3956,14 +3965,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3972,14 +3981,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3996,7 +4005,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4012,7 +4021,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4026,7 +4035,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4038,28 +4047,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4071,14 +4080,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4092,10 +4101,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4104,14 +4113,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4121,11 +4130,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>27</v>
@@ -4137,14 +4146,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>35</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4161,7 +4170,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4177,7 +4186,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4210,7 +4219,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4227,7 +4236,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4253,14 +4262,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>262</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4286,14 +4295,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>66</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4302,14 +4311,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4319,14 +4328,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4342,7 +4351,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4352,11 +4361,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4368,7 +4377,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4385,14 +4394,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4401,14 +4410,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>272</v>
+        <v>35</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4418,14 +4427,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4441,7 +4450,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>35</v>
+        <v>275</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4451,11 +4460,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4467,7 +4476,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4484,14 +4493,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4500,14 +4509,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>35</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4517,14 +4526,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>35</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4533,14 +4542,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4550,49 +4559,82 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>285</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>286</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>188</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>194</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
         <v>195</v>
       </c>
-      <c t="s" r="Q99" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>6174.0799999999999</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>284</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>285</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
-        <v>286</v>
-      </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>6196.8500000000004</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>287</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>288</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>289</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5066,10 +5108,15 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>55.6800</t>
   </si>
   <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
@@ -434,6 +443,15 @@
     <t>173.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
@@ -452,6 +470,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -473,21 +500,9 @@
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
     <t>LEVANIC 500MG 7 F.C. TAB.</t>
   </si>
   <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -569,9 +584,6 @@
     <t>19.00</t>
   </si>
   <si>
-    <t>19.0000</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -725,129 +737,135 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8494:0</t>
+    <t>8492:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>WELLMETAZONE 0.1% CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>37.50</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>39:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>78:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خيط اسنان </t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>زيت دابر املا 270 مل</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>33:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t>10.0000</t>
   </si>
   <si>
-    <t>WELLMETAZONE 0.1% CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>37.50</t>
-  </si>
-  <si>
-    <t>37.5000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>امواس لورد</t>
-  </si>
-  <si>
-    <t>39:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>78:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">خيط اسنان </t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>زيت دابر املا 270 مل</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>33:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>قطن 50جم</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -869,10 +887,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>Monday, 28 July, 2025 9:33 PM</t>
+    <t>Monday, 28 July, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1942,7 +1957,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1959,7 +1974,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1968,7 +1983,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1985,14 +2000,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>64</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2008,7 +2023,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2018,14 +2033,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2041,7 +2056,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2051,14 +2066,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2074,7 +2089,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2084,11 +2099,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -2100,14 +2115,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2117,14 +2132,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2133,14 +2148,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2150,11 +2165,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2166,14 +2181,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2206,7 +2221,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2223,7 +2238,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2239,7 +2254,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2249,7 +2264,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2272,7 +2287,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2282,14 +2297,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2305,7 +2320,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2338,7 +2353,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2352,7 +2367,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2364,14 +2379,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2381,14 +2396,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2414,14 +2429,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2430,14 +2445,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2447,14 +2462,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2470,7 +2485,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2480,14 +2495,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2496,14 +2511,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2513,14 +2528,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2536,7 +2551,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2546,14 +2561,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2569,7 +2584,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2579,14 +2594,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2602,7 +2617,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2612,14 +2627,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>102</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2628,14 +2643,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2661,14 +2676,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2678,14 +2693,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>125</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2701,7 +2716,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2718,7 +2733,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2734,7 +2749,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2751,7 +2766,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2767,7 +2782,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2784,7 +2799,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2800,7 +2815,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2833,7 +2848,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2850,7 +2865,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2866,7 +2881,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2883,7 +2898,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2899,7 +2914,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2932,7 +2947,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2942,14 +2957,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>149</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2965,7 +2980,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2982,7 +2997,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2998,7 +3013,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3015,7 +3030,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3031,7 +3046,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3041,14 +3056,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>158</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3064,7 +3079,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3074,14 +3089,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3090,14 +3105,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3107,14 +3122,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3140,11 +3155,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3156,14 +3171,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3173,14 +3188,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3206,14 +3221,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>61</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3222,14 +3237,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3239,11 +3254,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3255,14 +3270,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3272,11 +3287,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3288,14 +3303,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3305,14 +3320,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3321,14 +3336,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3338,14 +3353,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3354,14 +3369,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3371,14 +3386,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3387,31 +3402,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3420,14 +3435,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3437,14 +3452,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3453,28 +3468,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3486,31 +3501,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3519,14 +3534,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3536,14 +3551,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>32</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>200</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3552,7 +3567,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3565,15 +3580,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3585,14 +3600,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3602,14 +3617,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3618,14 +3633,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3635,14 +3650,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3651,14 +3666,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3668,14 +3683,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3684,14 +3699,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3701,14 +3716,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3717,14 +3732,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3734,14 +3749,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3750,14 +3765,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3767,14 +3782,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3783,14 +3798,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3800,14 +3815,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>94</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3816,7 +3831,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3829,18 +3844,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3849,14 +3864,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3866,14 +3881,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>36</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>37</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3882,14 +3897,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3899,14 +3914,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3915,31 +3930,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3948,14 +3963,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3965,11 +3980,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3981,14 +3996,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3998,14 +4013,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4014,14 +4029,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4031,11 +4046,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>49</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4047,14 +4062,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>61</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4064,11 +4079,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4080,31 +4095,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4113,31 +4128,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4146,31 +4161,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>64</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4179,28 +4194,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4212,31 +4227,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4245,31 +4260,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>35</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4278,7 +4293,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4291,18 +4306,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>265</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4311,31 +4326,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4344,31 +4359,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4377,7 +4392,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4390,18 +4405,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4410,7 +4425,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4423,18 +4438,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4443,28 +4458,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4476,7 +4491,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4489,15 +4504,15 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>198</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4509,7 +4524,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4522,18 +4537,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>102</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4542,31 +4557,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4575,66 +4590,165 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>6196.8500000000004</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>285</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>35</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>192</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>14</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>287</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
         <v>288</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>192</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
         <v>289</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>291</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>245</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>192</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>198</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>6355.8500000000004</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>292</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>293</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>294</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5113,10 +5227,25 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -518,6 +518,12 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>NEBILET 5MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
@@ -704,6 +710,15 @@
     <t>51.2850</t>
   </si>
   <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -887,7 +902,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 9:43 PM</t>
+    <t>Monday, 28 July, 2025 9:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3244,7 +3259,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3254,14 +3269,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3270,7 +3285,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3287,14 +3302,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3310,7 +3325,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3320,14 +3335,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>56</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3336,14 +3351,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3353,14 +3368,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3369,14 +3384,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3386,14 +3401,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3402,14 +3417,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3419,14 +3434,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3435,14 +3450,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3452,14 +3467,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3468,14 +3483,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3485,14 +3500,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3508,24 +3523,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3541,21 +3556,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3567,31 +3582,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3600,7 +3615,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3613,15 +3628,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3633,14 +3648,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3650,14 +3665,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3666,14 +3681,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3683,14 +3698,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3699,14 +3714,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3716,14 +3731,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3732,14 +3747,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3749,14 +3764,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>215</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3765,14 +3780,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3782,14 +3797,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>168</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3798,14 +3813,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3815,14 +3830,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3831,7 +3846,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3848,14 +3863,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3864,14 +3879,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3881,11 +3896,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3897,14 +3912,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3914,14 +3929,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3937,24 +3952,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3963,31 +3978,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3996,14 +4011,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4013,14 +4028,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4029,14 +4044,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4046,11 +4061,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4062,14 +4077,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>35</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4079,11 +4094,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4095,14 +4110,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4112,14 +4127,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>49</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>245</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4128,14 +4143,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>35</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4145,11 +4160,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4161,14 +4176,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4178,14 +4193,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4201,21 +4216,21 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>35</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4227,31 +4242,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>64</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4260,31 +4275,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4293,31 +4308,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4326,31 +4341,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4359,7 +4374,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4372,18 +4387,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4392,31 +4407,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>270</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4425,7 +4440,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4438,18 +4453,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4465,24 +4480,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q96" s="12">
         <v>275</v>
-      </c>
-      <c t="s" r="Q96" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4504,18 +4519,18 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4524,31 +4539,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4557,28 +4572,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4603,18 +4618,18 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4623,31 +4638,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4663,24 +4678,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>35</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4689,66 +4704,132 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>245</v>
+        <v>35</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>6355.8500000000004</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>292</v>
       </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
         <v>293</v>
       </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>194</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
         <v>294</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>296</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>250</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>194</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>200</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>6447.4399999999996</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>297</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>298</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>299</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5242,10 +5323,20 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALKAPRESS 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>-35.6400</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -92,9 +107,6 @@
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -380,9 +392,6 @@
     <t>1:7</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>62.6400</t>
   </si>
   <si>
@@ -515,9 +524,6 @@
     <t>-195.0000</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
     <t>NEBILET 5MG 14 TAB.</t>
   </si>
   <si>
@@ -671,9 +677,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>-35.6400</t>
-  </si>
-  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -902,7 +905,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 9:51 PM</t>
+    <t>Monday, 28 July, 2025 9:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1626,7 +1629,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1635,14 +1638,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1652,14 +1655,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1668,14 +1671,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1692,7 +1695,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1701,14 +1704,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1718,14 +1721,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1758,7 +1761,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1774,7 +1777,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1784,14 +1787,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1800,14 +1803,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1817,14 +1820,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1833,14 +1836,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1873,7 +1876,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1883,14 +1886,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1899,14 +1902,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1916,14 +1919,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1932,14 +1935,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1956,7 +1959,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1972,7 +1975,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1982,14 +1985,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1998,14 +2001,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2015,14 +2018,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2038,7 +2041,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2055,7 +2058,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2064,14 +2067,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2085,10 +2088,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2097,14 +2100,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2114,14 +2117,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2130,14 +2133,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2147,14 +2150,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2163,14 +2166,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2180,14 +2183,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2236,7 +2239,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2246,11 +2249,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2262,14 +2265,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2279,14 +2282,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2295,14 +2298,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2312,14 +2315,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2328,14 +2331,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2345,14 +2348,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2361,14 +2364,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2378,11 +2381,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2394,14 +2397,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2411,11 +2414,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2427,14 +2430,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2444,14 +2447,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2460,14 +2463,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2477,14 +2480,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2493,14 +2496,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2510,14 +2513,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2526,14 +2529,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2543,14 +2546,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2559,14 +2562,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2576,14 +2579,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2592,14 +2595,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2609,14 +2612,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2625,14 +2628,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2642,14 +2645,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2658,14 +2661,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2675,14 +2678,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2691,14 +2694,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2708,14 +2711,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2724,14 +2727,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2741,14 +2744,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>128</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2764,7 +2767,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2781,7 +2784,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2797,7 +2800,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2814,7 +2817,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2830,7 +2833,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2847,7 +2850,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2863,7 +2866,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2880,7 +2883,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2896,7 +2899,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2913,7 +2916,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2929,7 +2932,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2962,7 +2965,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2979,7 +2982,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2995,7 +2998,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3012,7 +3015,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3028,7 +3031,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3045,7 +3048,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3071,14 +3074,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>158</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3104,14 +3107,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>161</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3127,7 +3130,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3137,14 +3140,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3153,14 +3156,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3170,11 +3173,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3186,14 +3189,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3203,11 +3206,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3219,14 +3222,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3236,14 +3239,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3252,14 +3255,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3269,7 +3272,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3292,7 +3295,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3302,14 +3305,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3318,7 +3321,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3335,14 +3338,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3358,7 +3361,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3368,14 +3371,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>60</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3384,14 +3387,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3401,14 +3404,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3417,14 +3420,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3434,14 +3437,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3450,14 +3453,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3467,14 +3470,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3483,14 +3486,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3500,14 +3503,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3516,14 +3519,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3533,14 +3536,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3556,24 +3559,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3595,18 +3598,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3615,31 +3618,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3648,28 +3651,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3681,14 +3684,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3698,14 +3701,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>206</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3714,14 +3717,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3731,14 +3734,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3747,14 +3750,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3764,14 +3767,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3780,14 +3783,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>49</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3797,14 +3800,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>217</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3813,14 +3816,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3830,14 +3833,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>168</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3846,14 +3849,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3863,14 +3866,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3886,7 +3889,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3896,14 +3899,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3912,14 +3915,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3929,14 +3932,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3945,14 +3948,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3962,14 +3965,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3978,31 +3981,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4011,31 +4014,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4044,14 +4047,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4061,14 +4064,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>37</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4084,7 +4087,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4094,11 +4097,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4110,14 +4113,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4127,11 +4130,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4143,14 +4146,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4160,11 +4163,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4176,14 +4179,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4193,14 +4196,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>250</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4209,14 +4212,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>35</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4226,14 +4229,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4242,14 +4245,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4259,11 +4262,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>157</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4275,28 +4278,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>68</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4308,20 +4311,20 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4329,10 +4332,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4341,31 +4344,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4374,31 +4377,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4407,28 +4410,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4440,31 +4443,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4473,31 +4476,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>275</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4506,31 +4509,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>69</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4539,31 +4542,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4572,28 +4575,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4612,24 +4615,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4638,31 +4641,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>39</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>262</v>
+        <v>82</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4671,28 +4674,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>35</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4704,31 +4707,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4737,31 +4740,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>293</v>
+        <v>39</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>35</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4770,66 +4773,99 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>201</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>6447.4399999999996</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
         <v>297</v>
       </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>251</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>196</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>202</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>6411.8000000000002</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
         <v>298</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
         <v>299</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>300</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5333,10 +5369,15 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -905,7 +905,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 9:53 PM</t>
+    <t>Monday, 28 July, 2025 9:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -167,6 +167,12 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>ARBATEG 2% SUSP. 100ML</t>
   </si>
   <si>
@@ -197,6 +203,15 @@
     <t>55.6800</t>
   </si>
   <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
   </si>
   <si>
@@ -236,6 +251,12 @@
     <t>43.00</t>
   </si>
   <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>CETAL 1000MG 15 TABS</t>
   </si>
   <si>
@@ -248,7 +269,13 @@
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
   </si>
   <si>
     <t>CONGESTAL 20 TABS</t>
@@ -308,9 +335,6 @@
     <t>39.00</t>
   </si>
   <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>DIFLUCAN 150MG 1 CAPS.</t>
   </si>
   <si>
@@ -665,9 +689,6 @@
     <t>144.00</t>
   </si>
   <si>
-    <t>47.5200</t>
-  </si>
-  <si>
     <t>0:4</t>
   </si>
   <si>
@@ -806,6 +827,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">خيط اسنان </t>
   </si>
   <si>
@@ -878,16 +908,13 @@
     <t>قطن 50جم</t>
   </si>
   <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>75.0000</t>
+  </si>
+  <si>
+    <t>معجون سنسوداين صغير</t>
   </si>
   <si>
     <t xml:space="preserve">مناديل جيب مبلله </t>
@@ -1909,7 +1936,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1919,14 +1946,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1935,7 +1962,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1952,14 +1979,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1968,14 +1995,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1985,14 +2012,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2001,14 +2028,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2018,14 +2045,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2034,14 +2061,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2051,14 +2078,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2067,14 +2094,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2084,14 +2111,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2100,14 +2127,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2117,14 +2144,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2133,14 +2160,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2150,14 +2177,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2166,14 +2193,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2183,14 +2210,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2206,7 +2233,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2216,14 +2243,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2232,14 +2259,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2249,14 +2276,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2265,14 +2292,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2282,14 +2309,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2298,14 +2325,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2315,14 +2342,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2331,14 +2358,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2348,14 +2375,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2364,14 +2391,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2381,11 +2408,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2397,14 +2424,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2414,11 +2441,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2430,14 +2457,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2447,14 +2474,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2463,14 +2490,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2480,11 +2507,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -2496,14 +2523,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2513,11 +2540,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2529,14 +2556,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2546,14 +2573,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2562,14 +2589,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2579,11 +2606,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2595,14 +2622,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2612,14 +2639,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2628,14 +2655,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2645,11 +2672,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2661,7 +2688,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2678,11 +2705,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2694,14 +2721,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2711,14 +2738,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2727,14 +2754,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2744,14 +2771,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>128</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2760,14 +2787,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2777,11 +2804,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2793,14 +2820,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2810,14 +2837,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2826,14 +2853,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2843,14 +2870,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2859,14 +2886,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2876,14 +2903,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2892,7 +2919,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2909,14 +2936,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2925,14 +2952,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2942,14 +2969,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2958,14 +2985,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2975,11 +3002,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2991,14 +3018,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3008,14 +3035,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3024,14 +3051,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3041,14 +3068,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3057,14 +3084,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3074,14 +3101,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3090,7 +3117,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3107,14 +3134,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3123,14 +3150,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3140,14 +3167,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3156,7 +3183,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3173,11 +3200,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3189,14 +3216,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3206,14 +3233,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3229,7 +3256,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3239,14 +3266,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3255,14 +3282,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3272,14 +3299,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3288,14 +3315,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3305,14 +3332,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3321,14 +3348,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3338,11 +3365,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3354,14 +3381,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3371,14 +3398,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3387,14 +3414,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3404,14 +3431,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3420,14 +3447,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3437,14 +3464,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3453,14 +3480,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3470,14 +3497,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3486,14 +3513,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3503,14 +3530,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3519,14 +3546,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3536,14 +3563,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3552,14 +3579,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3569,11 +3596,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3585,28 +3612,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>26</v>
@@ -3618,14 +3645,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3635,14 +3662,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3658,13 +3685,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3675,7 +3702,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3691,7 +3718,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3705,7 +3732,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3717,31 +3744,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>208</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3750,14 +3777,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3767,14 +3794,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3783,31 +3810,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3816,14 +3843,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3833,14 +3860,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3849,14 +3876,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3866,14 +3893,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3882,14 +3909,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3899,11 +3926,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3915,14 +3942,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3932,11 +3959,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>26</v>
@@ -3948,14 +3975,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3965,14 +3992,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3981,14 +4008,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3998,14 +4025,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4014,7 +4041,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4027,18 +4054,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>107</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4047,7 +4074,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4064,11 +4091,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>26</v>
@@ -4080,14 +4107,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4097,14 +4124,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4113,14 +4140,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4130,14 +4157,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4146,31 +4173,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4179,14 +4206,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4196,14 +4223,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4212,14 +4239,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4229,14 +4256,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4245,7 +4272,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4262,11 +4289,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4278,14 +4305,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>68</v>
+        <v>249</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4295,11 +4322,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4311,28 +4338,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4344,31 +4371,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4377,31 +4404,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4410,28 +4437,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4443,28 +4470,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4476,31 +4503,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>39</v>
+        <v>267</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4509,31 +4536,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>39</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>276</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4542,31 +4569,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4575,28 +4602,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4608,28 +4635,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>202</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>203</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4641,7 +4668,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4654,18 +4681,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4674,31 +4701,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4707,7 +4734,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4720,18 +4747,18 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4740,31 +4767,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4773,31 +4800,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4806,66 +4833,264 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>251</v>
+        <v>39</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>203</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>6411.8000000000002</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>295</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>296</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>204</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>270</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>298</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>39</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>204</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>273</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>299</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>39</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>204</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>14</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
         <v>300</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c t="s" r="Q109" s="12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>301</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>258</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>204</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>55</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>302</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>303</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>204</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>304</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>306</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>258</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>204</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>210</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6592.0100000000002</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>307</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>308</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>309</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5374,10 +5599,40 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -932,7 +932,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 9:56 PM</t>
+    <t>Monday, 28 July, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -77,135 +77,150 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>AMARYL 3 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t>ANGIOSARTAN PLUS 40/25MG 28 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>ARBATEG 2% SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 312 MG/5ML SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>55.6800</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>AMARYL 3 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>AMIGRAINE ADCO 30 TABLETS</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 500 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>12.5000</t>
-  </si>
-  <si>
-    <t>ANGIOSARTAN PLUS 40/25MG 28 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>ARBATEG 2% SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 312 MG/5ML SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>55.6800</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
     <t>18.00</t>
   </si>
   <si>
@@ -428,7 +443,7 @@
     <t>76.00</t>
   </si>
   <si>
-    <t>76.0000</t>
+    <t>152.0000</t>
   </si>
   <si>
     <t>FOLICAP 2.5MG 24 CAP</t>
@@ -506,9 +521,6 @@
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
     <t>19.0000</t>
   </si>
   <si>
@@ -755,6 +767,15 @@
     <t>98.0000</t>
   </si>
   <si>
+    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>32.5000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -839,9 +860,6 @@
     <t xml:space="preserve">خيط اسنان </t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
     <t>65.0000</t>
   </si>
   <si>
@@ -932,7 +950,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 10:00 PM</t>
+    <t>Monday, 28 July, 2025 10:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1656,7 +1674,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1665,14 +1683,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1682,14 +1700,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1705,7 +1723,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1715,14 +1733,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1731,14 +1749,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1748,14 +1766,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1764,14 +1782,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1781,14 +1799,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1797,14 +1815,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1814,14 +1832,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1830,14 +1848,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1847,14 +1865,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1863,14 +1881,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1880,14 +1898,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1896,14 +1914,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1946,14 +1964,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1962,14 +1980,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1979,14 +1997,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1995,14 +2013,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2012,14 +2030,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2028,14 +2046,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2052,7 +2070,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2068,7 +2086,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2078,14 +2096,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2094,14 +2112,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2111,11 +2129,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2127,14 +2145,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2144,14 +2162,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2160,14 +2178,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2177,14 +2195,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2193,14 +2211,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2210,14 +2228,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2226,14 +2244,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2243,14 +2261,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2259,14 +2277,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2276,14 +2294,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2292,14 +2310,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2309,14 +2327,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2325,14 +2343,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2342,14 +2360,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2358,14 +2376,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2375,14 +2393,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2391,14 +2409,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2408,11 +2426,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2424,14 +2442,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2441,11 +2459,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2474,14 +2492,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2490,14 +2508,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2507,14 +2525,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2523,14 +2541,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2540,14 +2558,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2556,14 +2574,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2573,11 +2591,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2589,14 +2607,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2606,11 +2624,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2622,14 +2640,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2639,14 +2657,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2655,14 +2673,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2672,14 +2690,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2688,14 +2706,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2705,14 +2723,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2721,14 +2739,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2738,14 +2756,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2754,14 +2772,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2771,14 +2789,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2787,14 +2805,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2804,14 +2822,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2820,14 +2838,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2837,14 +2855,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2853,7 +2871,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2870,14 +2888,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2886,14 +2904,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2903,14 +2921,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2919,14 +2937,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2936,14 +2954,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2952,14 +2970,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2969,14 +2987,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2985,14 +3003,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3002,14 +3020,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3018,14 +3036,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3035,14 +3053,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3051,14 +3069,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3068,14 +3086,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3084,14 +3102,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3101,14 +3119,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3117,14 +3135,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3134,11 +3152,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3150,14 +3168,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3167,14 +3185,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3183,14 +3201,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3200,14 +3218,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3216,14 +3234,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3233,14 +3251,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3249,7 +3267,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3266,14 +3284,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>169</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3282,7 +3300,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3299,14 +3317,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3315,14 +3333,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3332,14 +3350,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3348,14 +3366,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3365,11 +3383,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3381,14 +3399,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3398,11 +3416,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3414,14 +3432,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3431,14 +3449,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3447,7 +3465,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3464,14 +3482,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3480,14 +3498,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3497,14 +3515,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3513,7 +3531,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3530,14 +3548,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3546,14 +3564,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3563,14 +3581,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>187</v>
+        <v>66</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3579,14 +3597,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3596,14 +3614,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3612,14 +3630,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3629,14 +3647,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3645,14 +3663,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3662,14 +3680,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3678,14 +3696,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3695,14 +3713,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3711,14 +3729,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3728,14 +3746,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3744,31 +3762,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3777,31 +3795,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3810,31 +3828,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3843,28 +3861,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3876,14 +3894,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3900,7 +3918,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>216</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3909,14 +3927,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3933,7 +3951,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3942,14 +3960,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3959,14 +3977,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3975,14 +3993,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>53</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3996,10 +4014,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>226</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4025,14 +4043,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4041,14 +4059,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4058,14 +4076,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4074,14 +4092,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4091,14 +4109,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4107,14 +4125,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4124,14 +4142,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4140,14 +4158,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4157,14 +4175,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4173,31 +4191,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4206,31 +4224,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4239,14 +4257,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4256,14 +4274,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4272,14 +4290,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4289,11 +4307,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>44</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4305,14 +4323,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4322,11 +4340,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4338,14 +4356,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4355,14 +4373,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4371,14 +4389,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4388,14 +4406,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>59</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>258</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4404,14 +4422,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4421,11 +4439,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4437,14 +4455,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>73</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4458,10 +4476,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4470,28 +4488,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4503,31 +4521,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4536,31 +4554,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4569,31 +4587,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4609,24 +4627,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4635,28 +4653,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4668,31 +4686,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4708,24 +4726,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>286</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4741,13 +4759,13 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4755,7 +4773,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>78</v>
@@ -4767,7 +4785,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4780,18 +4798,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4800,31 +4818,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4833,31 +4851,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>91</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4866,28 +4884,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4899,31 +4917,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>273</v>
+        <v>96</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4932,31 +4950,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>39</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>14</v>
+        <v>277</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4965,28 +4983,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>258</v>
+        <v>23</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4998,31 +5016,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>303</v>
+        <v>23</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>39</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5031,66 +5049,132 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>210</v>
+        <v>59</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6592.0100000000002</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>307</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>308</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
         <v>309</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>208</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>310</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>311</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>312</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>265</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>208</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>214</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6767.2200000000003</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>313</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>314</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>315</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5629,10 +5713,20 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>AUGMENTIN 312 MG/5ML SUSP. 80 ML</t>
   </si>
   <si>
@@ -368,10 +377,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>15.8400</t>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>31.6800</t>
   </si>
   <si>
     <t>DOLPHIN 12.5MG 10 SUPP</t>
@@ -806,9 +815,6 @@
     <t>14.0000</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>WELLMETAZONE 0.1% CREAM 40 GM</t>
   </si>
   <si>
@@ -950,7 +956,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 10:01 PM</t>
+    <t>Monday, 28 July, 2025 10:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2053,7 +2059,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2070,7 +2076,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2086,7 +2092,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2096,14 +2102,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2112,14 +2118,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2129,14 +2135,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2145,14 +2151,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2185,7 +2191,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2202,7 +2208,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2211,7 +2217,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2228,14 +2234,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>81</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>38</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2251,7 +2257,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2261,14 +2267,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2284,7 +2290,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2294,14 +2300,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2310,14 +2316,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2327,7 +2333,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2350,7 +2356,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2360,11 +2366,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>36</v>
@@ -2376,14 +2382,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2393,14 +2399,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2416,7 +2422,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2426,14 +2432,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2442,14 +2448,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2459,11 +2465,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2475,14 +2481,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2515,7 +2521,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2532,7 +2538,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2548,7 +2554,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2558,7 +2564,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2581,7 +2587,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2591,14 +2597,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2607,14 +2613,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2624,11 +2630,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2647,7 +2653,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2661,7 +2667,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2673,14 +2679,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2690,14 +2696,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2723,14 +2729,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2739,14 +2745,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2756,14 +2762,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2779,7 +2785,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2789,14 +2795,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2805,14 +2811,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2822,14 +2828,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2845,7 +2851,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2855,14 +2861,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2878,7 +2884,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2888,14 +2894,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2911,7 +2917,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2921,14 +2927,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>122</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2937,14 +2943,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2954,14 +2960,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2970,14 +2976,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2987,14 +2993,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>144</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3010,7 +3016,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3027,7 +3033,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3043,7 +3049,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3060,7 +3066,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3076,7 +3082,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3093,7 +3099,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3109,7 +3115,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3142,7 +3148,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3159,7 +3165,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3175,7 +3181,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3208,7 +3214,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3225,7 +3231,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3241,7 +3247,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3258,7 +3264,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3274,7 +3280,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3284,14 +3290,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3300,7 +3306,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3317,14 +3323,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>173</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3350,14 +3356,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>176</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>36</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3373,7 +3379,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3383,14 +3389,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3399,14 +3405,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3416,11 +3422,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3432,14 +3438,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3449,11 +3455,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3465,14 +3471,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3482,14 +3488,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3515,14 +3521,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3531,14 +3537,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3548,14 +3554,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3581,14 +3587,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3597,14 +3603,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3614,14 +3620,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3637,7 +3643,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3654,7 +3660,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3670,7 +3676,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3687,7 +3693,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3703,7 +3709,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3720,7 +3726,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3736,7 +3742,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3753,7 +3759,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3769,7 +3775,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3783,10 +3789,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3795,31 +3801,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3828,28 +3834,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>36</v>
@@ -3861,31 +3867,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3907,7 +3913,7 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3934,7 +3940,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>217</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3944,14 +3950,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>220</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3960,14 +3966,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3977,14 +3983,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q79" s="12">
         <v>223</v>
-      </c>
-      <c t="s" r="Q79" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4000,7 +4006,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4017,7 +4023,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4033,7 +4039,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4043,14 +4049,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>230</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4059,14 +4065,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4076,14 +4082,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4092,14 +4098,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>38</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4109,14 +4115,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4125,7 +4131,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4142,14 +4148,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>115</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4165,7 +4171,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4198,7 +4204,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4208,14 +4214,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4224,31 +4230,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4270,7 +4276,7 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4281,7 +4287,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4297,7 +4303,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4307,14 +4313,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4323,7 +4329,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4340,11 +4346,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4363,7 +4369,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4380,7 +4386,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4396,7 +4402,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4406,14 +4412,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>59</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4439,7 +4445,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4472,14 +4478,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>265</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4488,14 +4494,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4505,14 +4511,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4521,14 +4527,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4538,11 +4544,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>172</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4561,21 +4567,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4600,7 +4606,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4608,10 +4614,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4633,15 +4639,15 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4653,31 +4659,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4686,24 +4692,24 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4726,21 +4732,21 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4752,31 +4758,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4785,7 +4791,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4798,18 +4804,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>292</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4818,7 +4824,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4831,18 +4837,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>83</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4858,13 +4864,13 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4872,10 +4878,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4884,28 +4890,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>214</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4917,7 +4923,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4930,18 +4936,18 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4957,24 +4963,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>23</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4983,28 +4989,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>23</v>
+        <v>304</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5016,7 +5022,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5029,18 +5035,18 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>282</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5056,24 +5062,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>265</v>
+        <v>23</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5082,31 +5088,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>122</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>59</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5115,66 +5121,99 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>214</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>215</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6767.2200000000003</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>313</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>314</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>122</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>211</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>217</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6888.0600000000004</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
         <v>315</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>316</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>317</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5723,10 +5762,15 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -956,7 +956,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 10:03 PM</t>
+    <t>Monday, 28 July, 2025 10:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -377,444 +377,456 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>DROPIFLOX OTIC DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>570.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>62.6400</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>FOLICAP 2.5MG 24 CAP</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>6.2500</t>
+  </si>
+  <si>
+    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS 50 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>151.50</t>
+  </si>
+  <si>
+    <t>49.9950</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>173.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>201.0000</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>LAMIFEN 250MG 14 TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>LEVANIC 500MG 7 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>MOVENTOR 20 TABS.</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>-195.0000</t>
+  </si>
+  <si>
+    <t>NEBILET 5MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>OFRAMAX 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>284.0000</t>
+  </si>
+  <si>
+    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>OST-MAP 60MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>PAROXETINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>PIO WELL GEL</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:74</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>21.1200</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>RASPELOCIN 400MG 5 F.C.TAB</t>
+  </si>
+  <si>
+    <t>66.50</t>
+  </si>
+  <si>
+    <t>66.5000</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>SILDAVA 100MG 12 TABLETS</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>TELFAST 180MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>288.0000</t>
+  </si>
+  <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>51.2850</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VELOSEF 1GM 8 TAB.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>32.5000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>11:1</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8492:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DOLPHIN 12.5MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>DROPIFLOX OTIC DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>228.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>570.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t>62.6400</t>
-  </si>
-  <si>
-    <t>0:7</t>
-  </si>
-  <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>152.0000</t>
-  </si>
-  <si>
-    <t>FOLICAP 2.5MG 24 CAP</t>
-  </si>
-  <si>
-    <t>12.50</t>
-  </si>
-  <si>
-    <t>6.2500</t>
-  </si>
-  <si>
-    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS 50 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>151.50</t>
-  </si>
-  <si>
-    <t>49.9950</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>173.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>201.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>LAMIFEN 250MG 14 TAB</t>
-  </si>
-  <si>
-    <t>112.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>LEVANIC 500MG 7 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>MOVENTOR 20 TABS.</t>
-  </si>
-  <si>
-    <t>390.00</t>
-  </si>
-  <si>
-    <t>-195.0000</t>
-  </si>
-  <si>
-    <t>NEBILET 5MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>OFRAMAX 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>284.0000</t>
-  </si>
-  <si>
-    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>19.5000</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>OST-MAP 60MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>PAROXETINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>PIO WELL GEL</t>
-  </si>
-  <si>
-    <t>170.00</t>
-  </si>
-  <si>
-    <t>170.0000</t>
-  </si>
-  <si>
-    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>QUIBRON T/SR 300MG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:74</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>21.1200</t>
-  </si>
-  <si>
-    <t>0:16</t>
-  </si>
-  <si>
-    <t>RASPELOCIN 400MG 5 F.C.TAB</t>
-  </si>
-  <si>
-    <t>66.50</t>
-  </si>
-  <si>
-    <t>66.5000</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>SILDAVA 100MG 12 TABLETS</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>TELFAST 180MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>288.0000</t>
-  </si>
-  <si>
-    <t>TEMPO COOL</t>
-  </si>
-  <si>
-    <t>34.19</t>
-  </si>
-  <si>
-    <t>51.2850</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>VELOSEF 1GM 8 TAB.</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>98.0000</t>
-  </si>
-  <si>
-    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>32.5000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 100MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>11:1</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8492:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
     <t>WELLMETAZONE 0.1% CREAM 40 GM</t>
   </si>
   <si>
@@ -830,6 +842,9 @@
     <t>96.00</t>
   </si>
   <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>امواس لورد</t>
   </si>
   <si>
@@ -956,7 +971,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 10:04 PM</t>
+    <t>Monday, 28 July, 2025 10:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2059,7 +2074,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -3280,7 +3295,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3313,7 +3328,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3323,14 +3338,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3339,7 +3354,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3356,14 +3371,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>176</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3389,14 +3404,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>179</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>36</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3412,7 +3427,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3422,14 +3437,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3438,14 +3453,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3455,11 +3470,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3471,14 +3486,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3488,11 +3503,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3504,14 +3519,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3521,14 +3536,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3554,14 +3569,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3570,14 +3585,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3587,14 +3602,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3620,14 +3635,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3636,14 +3651,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3653,14 +3668,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>81</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3676,7 +3691,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3693,7 +3708,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3709,7 +3724,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3726,7 +3741,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3742,7 +3757,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3759,7 +3774,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3775,7 +3790,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3792,7 +3807,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3808,7 +3823,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3822,10 +3837,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3834,31 +3849,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3867,28 +3882,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>36</v>
@@ -3900,31 +3915,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3946,7 +3961,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3973,7 +3988,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3983,14 +3998,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>223</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3999,14 +4014,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4016,14 +4031,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q80" s="12">
         <v>226</v>
-      </c>
-      <c t="s" r="Q80" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4039,7 +4054,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4056,7 +4071,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4072,7 +4087,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>53</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4082,14 +4097,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>96</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>233</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4098,14 +4113,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4115,14 +4130,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4131,14 +4146,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4148,14 +4163,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4164,7 +4179,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4181,14 +4196,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>115</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4204,7 +4219,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4237,7 +4252,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4247,14 +4262,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4263,31 +4278,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4309,7 +4324,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4320,7 +4335,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4336,7 +4351,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4346,14 +4361,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4362,7 +4377,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4379,11 +4394,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4402,7 +4417,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4419,7 +4434,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4435,7 +4450,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4445,14 +4460,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>59</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4478,7 +4493,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4511,14 +4526,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4527,14 +4542,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>23</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4551,7 +4566,7 @@
         <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4560,14 +4575,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4577,11 +4592,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4593,31 +4608,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>72</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4626,20 +4641,20 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4647,10 +4662,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4659,28 +4674,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4692,31 +4707,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4725,28 +4740,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4758,28 +4773,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4791,31 +4806,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4824,7 +4839,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4837,18 +4852,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>294</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4857,7 +4872,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4870,18 +4885,18 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>86</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4890,31 +4905,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4923,28 +4938,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4956,7 +4971,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4969,18 +4984,18 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4989,31 +5004,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>304</v>
+        <v>23</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>279</v>
+        <v>99</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5022,28 +5037,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>23</v>
+        <v>309</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5055,7 +5070,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5068,18 +5083,18 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>14</v>
+        <v>287</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5088,31 +5103,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5121,31 +5136,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>312</v>
+        <v>59</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5154,66 +5169,99 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>217</v>
+        <v>317</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6888.0600000000004</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>315</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>316</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>317</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>319</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>271</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>214</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>220</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>7106.0600000000004</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>320</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>321</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>322</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5767,10 +5815,15 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -290,6 +290,15 @@
     <t>13.8600</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -956,6 +965,9 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">مناديل جيب مبلله </t>
   </si>
   <si>
@@ -971,7 +983,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 10:14 PM</t>
+    <t>Monday, 28 July, 2025 10:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2404,7 +2416,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2414,14 +2426,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2430,14 +2442,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2447,14 +2459,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2470,7 +2482,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2480,14 +2492,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2496,14 +2508,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2513,11 +2525,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2529,14 +2541,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2569,7 +2581,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2586,7 +2598,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2602,7 +2614,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2612,7 +2624,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2635,7 +2647,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2645,14 +2657,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2661,14 +2673,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2678,11 +2690,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2701,7 +2713,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2715,7 +2727,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2727,14 +2739,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2744,14 +2756,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2777,14 +2789,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2793,14 +2805,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2810,14 +2822,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2833,7 +2845,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2843,14 +2855,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2859,14 +2871,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2876,14 +2888,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2899,7 +2911,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2909,14 +2921,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2932,7 +2944,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2942,14 +2954,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2965,7 +2977,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2975,14 +2987,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>125</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2991,14 +3003,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3008,14 +3020,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3024,14 +3036,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3041,14 +3053,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3064,7 +3076,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3081,7 +3093,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3097,7 +3109,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3114,7 +3126,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3130,7 +3142,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3147,7 +3159,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3163,7 +3175,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3196,7 +3208,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3213,7 +3225,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3229,7 +3241,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3262,7 +3274,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3279,7 +3291,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3295,7 +3307,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3312,7 +3324,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3328,7 +3340,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3361,7 +3373,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3371,14 +3383,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3387,7 +3399,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3404,14 +3416,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>179</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3437,14 +3449,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>182</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>36</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3460,7 +3472,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3470,14 +3482,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3486,14 +3498,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3503,11 +3515,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3519,14 +3531,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3536,11 +3548,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3552,14 +3564,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3569,14 +3581,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3602,14 +3614,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3618,14 +3630,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3635,14 +3647,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3668,14 +3680,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3684,14 +3696,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3701,14 +3713,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>81</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3724,7 +3736,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3741,7 +3753,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3757,7 +3769,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3774,7 +3786,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3790,7 +3802,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3807,7 +3819,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3823,7 +3835,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3840,7 +3852,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3856,7 +3868,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3870,10 +3882,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3882,31 +3894,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3915,28 +3927,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>36</v>
@@ -3948,31 +3960,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3994,7 +4006,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -4021,7 +4033,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4031,14 +4043,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>226</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4047,14 +4059,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4064,14 +4076,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>229</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4087,7 +4099,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4104,7 +4116,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4120,7 +4132,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4130,14 +4142,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>236</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4146,14 +4158,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4163,14 +4175,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4179,14 +4191,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4196,14 +4208,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4212,7 +4224,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4229,14 +4241,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>118</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4252,7 +4264,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4285,7 +4297,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4295,14 +4307,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4311,31 +4323,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4357,7 +4369,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4368,7 +4380,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4384,7 +4396,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4394,14 +4406,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4410,7 +4422,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4427,11 +4439,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>44</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4450,7 +4462,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4467,7 +4479,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4483,7 +4495,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4493,14 +4505,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4526,7 +4538,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4559,14 +4571,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>271</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4575,14 +4587,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4592,14 +4604,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q97" s="12">
         <v>274</v>
-      </c>
-      <c t="s" r="Q97" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4615,7 +4627,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4632,7 +4644,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4648,24 +4660,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>72</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4674,20 +4686,20 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4695,10 +4707,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4707,28 +4719,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>14</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4740,20 +4752,20 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4764,7 +4776,7 @@
         <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4780,21 +4792,21 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4806,24 +4818,24 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4846,13 +4858,13 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -4863,7 +4875,7 @@
         <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4885,18 +4897,18 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>299</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4918,18 +4930,18 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>86</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4938,31 +4950,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4978,21 +4990,21 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5004,7 +5016,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5017,18 +5029,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5037,31 +5049,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>309</v>
+        <v>23</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>284</v>
+        <v>102</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5077,13 +5089,13 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>23</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
@@ -5091,7 +5103,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5103,7 +5115,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5116,18 +5128,18 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5136,31 +5148,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>271</v>
+        <v>23</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5169,31 +5181,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>317</v>
+        <v>59</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>318</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5209,59 +5221,92 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>220</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>221</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>7106.0600000000004</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>320</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>321</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
-        <v>322</v>
-      </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>323</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>274</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>217</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>223</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>7154.0600000000004</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>324</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>325</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>326</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5820,10 +5865,15 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -200,7 +200,7 @@
     <t>210.00</t>
   </si>
   <si>
-    <t>105.0000</t>
+    <t>210.0000</t>
   </si>
   <si>
     <t>AUGMENTIN 312 MG/5ML SUSP. 80 ML</t>
@@ -386,10 +386,7 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>31.6800</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>DOLPHIN 12.5MG 10 SUPP</t>
@@ -833,9 +830,6 @@
     <t>14.0000</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>WELLMETAZONE 0.1% CREAM 40 GM</t>
   </si>
   <si>
@@ -983,7 +977,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 10:16 PM</t>
+    <t>Monday, 28 July, 2025 10:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2086,7 +2080,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2103,7 +2097,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2793,10 +2787,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2805,14 +2799,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2838,7 +2832,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2855,11 +2849,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2871,14 +2865,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2904,14 +2898,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2921,11 +2915,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>72</v>
@@ -2937,14 +2931,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2954,11 +2948,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2970,7 +2964,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2987,11 +2981,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -3003,7 +2997,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3020,14 +3014,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3036,14 +3030,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3057,10 +3051,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>146</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>147</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3069,7 +3063,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3086,11 +3080,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -3102,7 +3096,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3119,11 +3113,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>36</v>
@@ -3135,7 +3129,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3152,11 +3146,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3168,7 +3162,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3185,11 +3179,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>36</v>
@@ -3201,7 +3195,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3218,11 +3212,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>36</v>
@@ -3234,7 +3228,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3251,11 +3245,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3267,7 +3261,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3284,11 +3278,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3300,7 +3294,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3317,11 +3311,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>72</v>
@@ -3333,7 +3327,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3350,11 +3344,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3366,7 +3360,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3383,11 +3377,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3399,7 +3393,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3420,7 +3414,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>36</v>
@@ -3432,7 +3426,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3449,14 +3443,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>181</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>182</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3465,7 +3459,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3482,11 +3476,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>36</v>
@@ -3498,7 +3492,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3531,7 +3525,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3548,11 +3542,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3564,7 +3558,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3597,7 +3591,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3614,11 +3608,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3630,7 +3624,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3651,7 +3645,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>36</v>
@@ -3663,7 +3657,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3680,11 +3674,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3696,7 +3690,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3717,7 +3711,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>36</v>
@@ -3729,14 +3723,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3746,11 +3740,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>81</v>
@@ -3762,7 +3756,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3779,11 +3773,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3795,7 +3789,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3812,11 +3806,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>36</v>
@@ -3828,7 +3822,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3845,11 +3839,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3861,7 +3855,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3878,11 +3872,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3894,7 +3888,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3911,11 +3905,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3927,7 +3921,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3940,7 +3934,7 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3960,7 +3954,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3993,7 +3987,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4006,15 +4000,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4026,7 +4020,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4043,11 +4037,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4059,14 +4053,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4076,14 +4070,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>228</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>229</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4092,7 +4086,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4109,11 +4103,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4125,7 +4119,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4142,11 +4136,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>36</v>
@@ -4158,14 +4152,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4175,14 +4169,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4191,14 +4185,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4224,7 +4218,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4257,7 +4251,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4274,11 +4268,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>36</v>
@@ -4290,7 +4284,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4307,11 +4301,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>36</v>
@@ -4323,7 +4317,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4340,11 +4334,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4356,7 +4350,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4369,15 +4363,15 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>38</v>
@@ -4389,7 +4383,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4406,11 +4400,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>36</v>
@@ -4422,7 +4416,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4455,7 +4449,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4472,11 +4466,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4488,7 +4482,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4505,11 +4499,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>36</v>
@@ -4521,14 +4515,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4542,7 +4536,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4554,14 +4548,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4571,11 +4565,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4587,14 +4581,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4604,14 +4598,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>274</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4620,7 +4614,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4637,11 +4631,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4653,7 +4647,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4670,11 +4664,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4686,20 +4680,20 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4719,20 +4713,20 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4740,7 +4734,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4752,28 +4746,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4785,7 +4779,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4798,15 +4792,15 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4818,7 +4812,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4831,15 +4825,15 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4851,7 +4845,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4864,15 +4858,15 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4884,7 +4878,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4897,15 +4891,15 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>81</v>
@@ -4917,7 +4911,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4930,18 +4924,18 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4950,7 +4944,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4963,15 +4957,15 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>86</v>
@@ -4983,7 +4977,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4996,15 +4990,15 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5016,7 +5010,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5029,15 +5023,15 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5049,7 +5043,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5062,7 +5056,7 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
@@ -5070,7 +5064,7 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5082,28 +5076,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5115,7 +5109,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5128,15 +5122,15 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5148,7 +5142,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5161,7 +5155,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
@@ -5169,10 +5163,10 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5181,20 +5175,20 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5214,28 +5208,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>23</v>
@@ -5247,28 +5241,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>274</v>
+        <v>125</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5276,13 +5270,13 @@
     </row>
     <row r="118" ht="24.75" customHeight="1">
       <c r="P118" s="13">
-        <v>7154.0600000000004</v>
+        <v>7274.8999999999996</v>
       </c>
       <c r="Q118" s="13"/>
     </row>
     <row r="119" ht="16.5" customHeight="1">
       <c t="s" r="A119" s="14">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -5290,13 +5284,13 @@
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
       <c t="s" r="G119" s="15">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H119" s="15"/>
       <c r="I119" s="15"/>
       <c r="J119" s="16"/>
       <c t="s" r="K119" s="17">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L119" s="17"/>
       <c r="M119" s="17"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -839,6 +839,12 @@
     <t>37.5000</t>
   </si>
   <si>
+    <t>XILONE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -977,7 +983,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 10:17 PM</t>
+    <t>Monday, 28 July, 2025 10:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4654,7 +4660,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4664,14 +4670,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>129</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4680,31 +4686,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>72</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4734,10 +4740,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4763,11 +4769,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4779,14 +4785,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4796,14 +4802,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4812,14 +4818,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4829,7 +4835,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4852,7 +4858,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4862,11 +4868,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4878,14 +4884,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4895,14 +4901,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4911,7 +4917,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4928,14 +4934,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>300</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4944,7 +4950,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4961,14 +4967,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>223</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>86</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4984,7 +4990,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4998,10 +5004,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5010,14 +5016,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5027,11 +5033,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5043,7 +5049,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5060,14 +5066,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5083,7 +5089,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>23</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5093,14 +5099,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>285</v>
+        <v>102</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5109,14 +5115,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>312</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5126,11 +5132,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5142,7 +5148,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5159,14 +5165,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5182,7 +5188,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>316</v>
+        <v>23</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5192,14 +5198,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>60</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5225,14 +5231,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>59</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5241,14 +5247,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5258,49 +5264,82 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>323</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>125</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>216</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>222</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>223</v>
       </c>
-      <c t="s" r="Q117" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>7274.8999999999996</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>322</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
-        <v>323</v>
-      </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>7308.8999999999996</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
         <v>324</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>325</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>326</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5864,10 +5903,15 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -983,7 +983,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 10:18 PM</t>
+    <t>Monday, 28 July, 2025 10:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>18.0000</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
   </si>
   <si>
     <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
@@ -2218,7 +2227,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2235,7 +2244,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2251,7 +2260,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2268,7 +2277,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2277,7 +2286,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2294,14 +2303,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>84</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>38</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2317,7 +2326,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2327,14 +2336,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2350,7 +2359,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2360,14 +2369,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2376,14 +2385,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2393,7 +2402,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2416,7 +2425,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2433,7 +2442,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2449,7 +2458,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2459,14 +2468,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2475,14 +2484,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2492,14 +2501,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2515,7 +2524,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2525,14 +2534,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2541,14 +2550,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2558,11 +2567,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2574,14 +2583,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2614,7 +2623,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2631,7 +2640,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2647,7 +2656,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2657,7 +2666,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2680,7 +2689,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2690,14 +2699,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2706,14 +2715,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2723,11 +2732,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2746,7 +2755,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2760,7 +2769,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2789,14 +2798,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2805,14 +2814,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2822,14 +2831,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2838,14 +2847,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2855,14 +2864,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2878,7 +2887,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2888,14 +2897,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2904,14 +2913,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2921,14 +2930,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2944,7 +2953,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2954,14 +2963,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2977,7 +2986,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2987,14 +2996,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3010,7 +3019,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3020,14 +3029,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3036,14 +3045,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3053,14 +3062,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3069,14 +3078,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3086,14 +3095,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>149</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3109,7 +3118,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3126,7 +3135,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3142,7 +3151,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3159,7 +3168,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3175,7 +3184,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3192,7 +3201,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3208,7 +3217,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3241,7 +3250,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3258,7 +3267,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3274,7 +3283,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3307,7 +3316,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3324,7 +3333,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3340,7 +3349,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3357,7 +3366,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3373,7 +3382,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3406,7 +3415,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3416,14 +3425,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3432,7 +3441,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3449,14 +3458,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>181</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3482,14 +3491,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>184</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>36</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3505,7 +3514,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3515,14 +3524,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3531,14 +3540,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3548,11 +3557,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3564,14 +3573,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3581,11 +3590,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3597,14 +3606,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3614,14 +3623,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3647,14 +3656,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3663,14 +3672,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3680,14 +3689,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3713,14 +3722,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3729,14 +3738,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3746,14 +3755,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>81</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3769,7 +3778,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3786,7 +3795,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3802,7 +3811,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3819,7 +3828,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3835,7 +3844,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3852,7 +3861,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3868,7 +3877,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3885,7 +3894,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3901,7 +3910,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3915,10 +3924,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3927,31 +3936,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3960,28 +3969,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>36</v>
@@ -3993,31 +4002,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4039,7 +4048,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -4066,7 +4075,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4076,14 +4085,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>228</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4092,14 +4101,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4109,14 +4118,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>231</v>
-      </c>
-      <c t="s" r="Q82" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4132,7 +4141,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4149,7 +4158,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4165,7 +4174,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4175,14 +4184,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>238</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4191,14 +4200,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4208,14 +4217,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4224,14 +4233,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4241,14 +4250,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4257,7 +4266,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4274,14 +4283,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>121</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4297,7 +4306,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4330,7 +4339,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4340,14 +4349,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4356,31 +4365,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4402,7 +4411,7 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4413,7 +4422,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4429,7 +4438,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4439,14 +4448,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4455,7 +4464,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4472,11 +4481,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4495,7 +4504,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4512,7 +4521,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4528,7 +4537,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4538,14 +4547,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>59</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4571,7 +4580,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4604,14 +4613,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4620,14 +4629,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>23</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4644,7 +4653,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4660,7 +4669,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4670,11 +4679,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>129</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4686,14 +4695,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4703,14 +4712,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>132</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4726,24 +4735,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>72</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>15</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4752,20 +4761,20 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4773,10 +4782,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4785,28 +4794,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4818,20 +4827,20 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4842,7 +4851,7 @@
         <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4858,21 +4867,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4884,24 +4893,24 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4924,13 +4933,13 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -4941,7 +4950,7 @@
         <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4963,18 +4972,18 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>302</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4996,18 +5005,18 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>86</v>
+        <v>305</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5016,31 +5025,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5056,21 +5065,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>222</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>223</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5082,7 +5091,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5095,18 +5104,18 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5115,31 +5124,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>312</v>
+        <v>23</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>287</v>
+        <v>105</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5155,13 +5164,13 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>23</v>
+        <v>315</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
@@ -5169,7 +5178,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5181,7 +5190,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5194,18 +5203,18 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5214,31 +5223,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>318</v>
+        <v>23</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>60</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5247,31 +5256,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>321</v>
+        <v>59</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>322</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5280,66 +5289,99 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>125</v>
+        <v>323</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>223</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>7308.8999999999996</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>324</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>325</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
         <v>326</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>128</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>219</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>225</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>7335.6300000000001</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>327</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>328</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>329</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5908,10 +5950,15 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -365,10 +365,10 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>11.8800</t>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DECONGESTYL-N 12 RECTAL SUPP.</t>
@@ -2706,7 +2706,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -5351,7 +5351,7 @@
     </row>
     <row r="120" ht="24.75" customHeight="1">
       <c r="P120" s="13">
-        <v>7335.6300000000001</v>
+        <v>7347.5100000000002</v>
       </c>
       <c r="Q120" s="13"/>
     </row>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -308,6 +308,15 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -524,6 +533,15 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>HIDERM TOPICAL LOTION 100ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
@@ -939,9 +957,6 @@
   </si>
   <si>
     <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
   </si>
   <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
@@ -2491,7 +2506,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2501,11 +2516,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>36</v>
@@ -2517,14 +2532,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2534,14 +2549,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2557,7 +2572,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2567,14 +2582,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2583,14 +2598,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2600,11 +2615,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2616,14 +2631,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2656,7 +2671,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2673,7 +2688,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2689,7 +2704,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2699,14 +2714,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2722,7 +2737,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2732,14 +2747,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2748,14 +2763,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2765,11 +2780,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2788,7 +2803,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2802,7 +2817,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2814,14 +2829,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2831,14 +2846,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2847,14 +2862,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2864,14 +2879,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2880,14 +2895,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2897,14 +2912,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2920,7 +2935,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2930,14 +2945,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2946,14 +2961,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2963,14 +2978,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2986,7 +3001,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2996,14 +3011,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3019,7 +3034,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3029,14 +3044,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3052,7 +3067,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3062,14 +3077,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3078,14 +3093,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3095,14 +3110,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3111,14 +3126,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3128,14 +3143,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>152</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3151,7 +3166,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3168,7 +3183,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3184,7 +3199,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3201,7 +3216,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3217,7 +3232,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3234,7 +3249,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3250,7 +3265,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3283,7 +3298,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3300,7 +3315,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3316,7 +3331,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3349,7 +3364,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3366,7 +3381,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3382,7 +3397,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3415,7 +3430,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3432,7 +3447,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3448,7 +3463,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3458,14 +3473,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3474,14 +3489,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3491,14 +3506,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>184</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3507,7 +3522,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3524,7 +3539,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3547,7 +3562,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3557,14 +3572,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3573,14 +3588,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3590,14 +3605,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3606,14 +3621,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3623,11 +3638,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3639,7 +3654,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3656,14 +3671,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3672,14 +3687,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3689,14 +3704,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3705,14 +3720,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3722,14 +3737,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3738,14 +3753,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3755,11 +3770,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>36</v>
@@ -3771,14 +3786,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3788,14 +3803,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3804,14 +3819,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3821,14 +3836,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3844,7 +3859,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3861,7 +3876,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>36</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3910,7 +3925,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3927,7 +3942,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3943,7 +3958,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3957,7 +3972,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3969,31 +3984,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4002,14 +4017,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4019,14 +4034,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4035,31 +4050,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>19</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4068,14 +4083,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4085,14 +4100,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4108,24 +4123,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>231</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4134,7 +4149,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4151,11 +4166,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4167,14 +4182,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>53</v>
+        <v>234</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4184,14 +4199,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q84" s="12">
         <v>237</v>
-      </c>
-      <c t="s" r="Q84" s="12">
-        <v>36</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4207,7 +4222,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4217,14 +4232,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>241</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4233,14 +4248,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>53</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4250,14 +4265,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4273,7 +4288,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4283,14 +4298,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>121</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4299,14 +4314,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4316,14 +4331,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4332,14 +4347,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4349,14 +4364,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4372,7 +4387,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4382,14 +4397,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4398,31 +4413,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4431,14 +4446,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4448,14 +4463,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4471,24 +4486,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4497,14 +4512,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4514,14 +4529,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4530,14 +4545,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4547,14 +4562,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4570,7 +4585,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>267</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4580,7 +4595,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>59</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4603,7 +4618,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4613,14 +4628,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4646,14 +4661,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>59</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4662,14 +4677,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>23</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4679,11 +4694,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4695,14 +4710,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>279</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4712,14 +4727,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>132</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4728,14 +4743,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4745,14 +4760,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4761,28 +4776,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4794,28 +4809,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>72</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>226</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4827,31 +4842,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4867,24 +4882,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4893,31 +4908,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4926,28 +4941,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4959,7 +4974,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4972,18 +4987,18 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4999,24 +5014,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>305</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5038,7 +5053,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
@@ -5046,10 +5061,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5058,31 +5073,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5091,7 +5106,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5104,18 +5119,18 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>225</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5124,31 +5139,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5157,28 +5172,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>315</v>
+        <v>23</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5203,18 +5218,18 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>293</v>
+        <v>108</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5223,31 +5238,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>23</v>
+        <v>320</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>296</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5256,31 +5271,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>23</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>59</v>
+        <v>299</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5289,31 +5304,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>323</v>
+        <v>23</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>324</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>23</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5322,66 +5337,132 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>128</v>
+        <v>326</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>225</v>
+        <v>59</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>7347.5100000000002</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>327</v>
       </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
         <v>328</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>225</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
         <v>329</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>330</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>331</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>131</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>225</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>231</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>7414.5100000000002</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>332</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>333</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>334</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5955,10 +6036,20 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -1007,7 +1007,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 10:21 PM</t>
+    <t>Monday, 28 July, 2025 10:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-28_00-00.xlsx
+++ b/DaySale_2025-07-28_00-00.xlsx
@@ -602,6 +602,15 @@
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>MOVENTOR 20 TABS.</t>
   </si>
   <si>
@@ -1007,7 +1016,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 28 July, 2025 10:28 PM</t>
+    <t>Monday, 28 July, 2025 10:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3727,7 +3736,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3744,7 +3753,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3770,14 +3779,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3786,14 +3795,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3803,14 +3812,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3836,14 +3845,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3852,14 +3861,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3869,14 +3878,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>84</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3892,7 +3901,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3909,7 +3918,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3925,7 +3934,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3942,7 +3951,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3958,7 +3967,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3975,7 +3984,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3991,7 +4000,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4008,7 +4017,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4024,7 +4033,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4038,10 +4047,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4050,31 +4059,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4083,28 +4092,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>4